--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_096.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_096.xlsx
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.81752358934196</v>
+        <v>83.61329579185137</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -702,139 +702,139 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.21470094863179</v>
+        <v>20.44844796504293</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16.9784737142757</v>
+        <v>27.60002106818597</v>
       </c>
       <c r="I2" t="n">
-        <v>176.9736294955726</v>
+        <v>25.53673645128791</v>
       </c>
       <c r="J2" t="n">
-        <v>62.8978451004589</v>
+        <v>172.9180438903273</v>
       </c>
       <c r="K2" t="n">
-        <v>140.276695827539</v>
+        <v>19.71444029684591</v>
       </c>
       <c r="L2" t="n">
-        <v>34.43522387267578</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>74.87003426833536</v>
+        <v>74.83485108030148</v>
       </c>
       <c r="N2" t="n">
-        <v>47.1534127100719</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.33058034927652</v>
+        <v>56.92582065564433</v>
       </c>
       <c r="P2" t="n">
-        <v>23.79477099970959</v>
+        <v>70.1283028355072</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.788039029404302</v>
+        <v>46.30900509279542</v>
       </c>
       <c r="R2" t="n">
-        <v>14.90798799377902</v>
+        <v>46.81112267406252</v>
       </c>
       <c r="S2" t="n">
-        <v>17.66128818384053</v>
+        <v>51.90094233508198</v>
       </c>
       <c r="T2" t="n">
-        <v>113.5583302239293</v>
+        <v>90.41433141069635</v>
       </c>
       <c r="U2" t="n">
-        <v>25.42189310958895</v>
+        <v>143.4314310706665</v>
       </c>
       <c r="V2" t="n">
-        <v>131.6218262731581</v>
+        <v>41.7209289190093</v>
       </c>
       <c r="W2" t="n">
-        <v>38.58425161552261</v>
+        <v>334.1062527452922</v>
       </c>
       <c r="X2" t="n">
-        <v>59.57041616811242</v>
+        <v>56.78459992801248</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.87951913699402</v>
+        <v>50.48984420514702</v>
       </c>
       <c r="Z2" t="n">
-        <v>69.28370158368337</v>
+        <v>36.64578865646546</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.97884860051971</v>
+        <v>142.4137866653835</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.69963762586633</v>
+        <v>227.5111212289426</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4722535613155</v>
+        <v>91.72615745798156</v>
       </c>
       <c r="AD2" t="n">
-        <v>71.91651845385144</v>
+        <v>96.1792817281603</v>
       </c>
       <c r="AE2" t="n">
-        <v>135.5042734852982</v>
+        <v>90.75907417527577</v>
       </c>
       <c r="AF2" t="n">
-        <v>107.3913073158106</v>
+        <v>137.2850028536254</v>
       </c>
       <c r="AG2" t="n">
-        <v>71.70096160358869</v>
+        <v>91.50328685702083</v>
       </c>
       <c r="AH2" t="n">
-        <v>63.06365045827412</v>
+        <v>100.8677241771685</v>
       </c>
       <c r="AI2" t="n">
-        <v>71.06868067962816</v>
+        <v>116.1440410125447</v>
       </c>
       <c r="AJ2" t="n">
-        <v>164.3956211288142</v>
+        <v>95.38335658871561</v>
       </c>
       <c r="AK2" t="n">
-        <v>53.92587354227437</v>
+        <v>114.817160971862</v>
       </c>
       <c r="AL2" t="n">
-        <v>21.56311383034208</v>
+        <v>106.1265505935348</v>
       </c>
       <c r="AM2" t="n">
-        <v>41.53932435242274</v>
+        <v>39.98027402214024</v>
       </c>
       <c r="AN2" t="n">
-        <v>19.91438428438688</v>
+        <v>7.419709344406134</v>
       </c>
       <c r="AO2" t="n">
-        <v>26.1682500157642</v>
+        <v>27.29414043076428</v>
       </c>
       <c r="AP2" t="n">
-        <v>24.58870920191307</v>
+        <v>29.65144060081979</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13.87489741908572</v>
+        <v>7.000793846964672</v>
       </c>
       <c r="AR2" t="n">
-        <v>20.19567593703516</v>
+        <v>42.64230119771625</v>
       </c>
       <c r="AS2" t="n">
-        <v>17.99860264776146</v>
+        <v>45.66152600607975</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.743128645365738</v>
+        <v>13.03679620285911</v>
       </c>
       <c r="AU2" t="n">
-        <v>22.60185757209146</v>
+        <v>22.19514068870865</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.83766794858478</v>
+        <v>23.21000545469534</v>
       </c>
       <c r="AW2" t="n">
-        <v>25.32911224777051</v>
+        <v>29.27007501748322</v>
       </c>
       <c r="AX2" t="n">
-        <v>23.0807042916406</v>
+        <v>15.07413827220607</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.465055008878874</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.125708509038488</v>
       </c>
       <c r="E3" t="n">
-        <v>1.329853804626369</v>
+        <v>12.65222215261361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5719551249772928</v>
+        <v>4.911689394351579</v>
       </c>
       <c r="G3" t="n">
-        <v>4.610191759097758</v>
+        <v>3.988536679122198</v>
       </c>
       <c r="H3" t="n">
-        <v>3.912012234841099</v>
+        <v>4.242938080201803</v>
       </c>
       <c r="I3" t="n">
-        <v>4.759687884636616</v>
+        <v>1.801808882099357</v>
       </c>
       <c r="J3" t="n">
-        <v>14.63677346138807</v>
+        <v>3.136858414765313</v>
       </c>
       <c r="K3" t="n">
-        <v>2.341279806623662</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.923623393828866</v>
+        <v>2.07674151306498</v>
       </c>
       <c r="M3" t="n">
-        <v>2.929593769099224</v>
+        <v>5.376170313618561</v>
       </c>
       <c r="N3" t="n">
-        <v>2.082828449494425</v>
+        <v>7.969239577162161</v>
       </c>
       <c r="O3" t="n">
-        <v>12.92126011112488</v>
+        <v>9.38597365660676</v>
       </c>
       <c r="P3" t="n">
-        <v>3.14874874604498</v>
+        <v>3.571775368030442</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.152217013726037</v>
+        <v>3.447912620490097</v>
       </c>
       <c r="R3" t="n">
-        <v>4.937714584524707</v>
+        <v>6.654308593607433</v>
       </c>
       <c r="S3" t="n">
-        <v>3.738166294602832</v>
+        <v>2.069530453774559</v>
       </c>
       <c r="T3" t="n">
-        <v>3.204140290876934</v>
+        <v>28.11891485765209</v>
       </c>
       <c r="U3" t="n">
-        <v>5.719161376605126</v>
+        <v>7.195297112645481</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7000491897944905</v>
+        <v>2.274954513842767</v>
       </c>
       <c r="W3" t="n">
-        <v>4.142486896487738</v>
+        <v>6.900852278388283</v>
       </c>
       <c r="X3" t="n">
-        <v>3.153009007423727</v>
+        <v>2.428263514454112</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.139876731942321</v>
+        <v>6.613558077110616</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.380553179292958</v>
+        <v>7.419082651170052</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.856665588250845</v>
+        <v>6.105990856007145</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.106058711946747</v>
+        <v>4.66613421208311</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.760706631291383</v>
+        <v>2.384674041091081</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.169096342485489</v>
+        <v>4.897066950203338</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.720993252923551</v>
+        <v>6.279223944818898</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.446420026012317</v>
+        <v>6.272487843302319</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.779291900642693</v>
+        <v>6.386911250090753</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.486553620421034</v>
+        <v>5.831488106666399</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.08482241918281</v>
+        <v>6.00164913567271</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.256317786804327</v>
+        <v>5.322364423180299</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.864120249439977</v>
+        <v>5.026283908861709</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.534745472660801</v>
+        <v>7.440998206096746</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.107120231166703</v>
+        <v>2.30167219787221</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33265442462891</v>
+        <v>1.607669308667741</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.042615748355106</v>
+        <v>1.755548000494825</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.537299776121115</v>
+        <v>4.934654793875192</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.931450936246983</v>
+        <v>2.510734265898737</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.648663829703695</v>
+        <v>4.815755326886519</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.536073050734313</v>
+        <v>3.915800070408913</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.304754009228018</v>
+        <v>4.499212470932794</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.555854684681891</v>
+        <v>4.678637503958871</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.251015590239586</v>
+        <v>3.438725648398119</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>3.313555557963072</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.192166271930128</v>
+        <v>7.590247322581757</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7.023898070419463</v>
+        <v>201.2974391959676</v>
       </c>
       <c r="D4" t="n">
-        <v>13.29897839444942</v>
+        <v>49.98692737735668</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12.33034642739272</v>
       </c>
       <c r="F4" t="n">
-        <v>20.17985095595086</v>
+        <v>4.791438413915319</v>
       </c>
       <c r="G4" t="n">
-        <v>6.432885242159489</v>
+        <v>134.7871538224855</v>
       </c>
       <c r="H4" t="n">
-        <v>19.17286168359615</v>
+        <v>7.409163489802989</v>
       </c>
       <c r="I4" t="n">
-        <v>83.72856832479616</v>
+        <v>43.19811501436839</v>
       </c>
       <c r="J4" t="n">
-        <v>112.1011134893908</v>
+        <v>121.1233619961449</v>
       </c>
       <c r="K4" t="n">
-        <v>31.54516931445663</v>
+        <v>8.135322479407591</v>
       </c>
       <c r="L4" t="n">
-        <v>43.13158447257906</v>
+        <v>56.27136253293554</v>
       </c>
       <c r="M4" t="n">
-        <v>88.29735618919057</v>
+        <v>90.67909129580337</v>
       </c>
       <c r="N4" t="n">
-        <v>77.64346568798663</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>28.53158558058172</v>
+        <v>39.89520819281994</v>
       </c>
       <c r="P4" t="n">
-        <v>64.72752243496502</v>
+        <v>20.14830802392803</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.54489739681656</v>
+        <v>49.24505987027571</v>
       </c>
       <c r="R4" t="n">
-        <v>43.15828304576244</v>
+        <v>72.01703226404059</v>
       </c>
       <c r="S4" t="n">
-        <v>105.2797967703617</v>
+        <v>28.42455051415524</v>
       </c>
       <c r="T4" t="n">
-        <v>29.64165333177793</v>
+        <v>45.99054585799976</v>
       </c>
       <c r="U4" t="n">
-        <v>125.4426518291769</v>
+        <v>13.49115215893719</v>
       </c>
       <c r="V4" t="n">
-        <v>54.00195255708023</v>
+        <v>76.19943308091015</v>
       </c>
       <c r="W4" t="n">
-        <v>47.95511500412206</v>
+        <v>62.6903758286363</v>
       </c>
       <c r="X4" t="n">
-        <v>43.84091900124582</v>
+        <v>99.42161213233831</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.41911821474193</v>
+        <v>96.01604484054963</v>
       </c>
       <c r="Z4" t="n">
-        <v>46.00877291679446</v>
+        <v>16.05168899909503</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.66716940499408</v>
+        <v>49.44770011240993</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.17862311779498</v>
+        <v>37.19027545458967</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.17033832494097</v>
+        <v>94.01439701842074</v>
       </c>
       <c r="AD4" t="n">
-        <v>110.7208685987667</v>
+        <v>25.23440238495839</v>
       </c>
       <c r="AE4" t="n">
-        <v>47.44634477233435</v>
+        <v>52.22385930461918</v>
       </c>
       <c r="AF4" t="n">
-        <v>90.57882889149273</v>
+        <v>116.4627760506218</v>
       </c>
       <c r="AG4" t="n">
-        <v>41.40551779687748</v>
+        <v>57.64006680796397</v>
       </c>
       <c r="AH4" t="n">
-        <v>64.9176386782088</v>
+        <v>62.07653375626325</v>
       </c>
       <c r="AI4" t="n">
-        <v>104.2178748814742</v>
+        <v>54.87323887179824</v>
       </c>
       <c r="AJ4" t="n">
-        <v>77.02669468364461</v>
+        <v>49.43300379603772</v>
       </c>
       <c r="AK4" t="n">
-        <v>52.42325342526775</v>
+        <v>48.24915610831426</v>
       </c>
       <c r="AL4" t="n">
-        <v>31.4647488817747</v>
+        <v>91.39983092726834</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.117752691121549</v>
+        <v>6.747471422026408</v>
       </c>
       <c r="AN4" t="n">
-        <v>34.55438270703035</v>
+        <v>8.578447949073645</v>
       </c>
       <c r="AO4" t="n">
-        <v>37.80512927002474</v>
+        <v>8.095486415039389</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.60456653194042</v>
+        <v>17.13483955208446</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27.19944302360845</v>
+        <v>12.38480499041002</v>
       </c>
       <c r="AR4" t="n">
-        <v>14.49117657746924</v>
+        <v>16.4885166055438</v>
       </c>
       <c r="AS4" t="n">
-        <v>14.38318234200247</v>
+        <v>8.499029591652153</v>
       </c>
       <c r="AT4" t="n">
-        <v>18.72798627289584</v>
+        <v>9.020028222994808</v>
       </c>
       <c r="AU4" t="n">
-        <v>17.15208120657493</v>
+        <v>28.0458221434475</v>
       </c>
       <c r="AV4" t="n">
-        <v>10.5194190650987</v>
+        <v>25.74877473789667</v>
       </c>
       <c r="AW4" t="n">
-        <v>15.7332045208868</v>
+        <v>12.33269920529599</v>
       </c>
       <c r="AX4" t="n">
-        <v>15.90414208661186</v>
+        <v>10.73061768512332</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>29.78471989965334</v>
+        <v>27.05731195579133</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.972729187194146</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.26461826484279</v>
+        <v>1.922863226386404</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>155.3704003434289</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>46.6425032185456</v>
       </c>
       <c r="I5" t="n">
-        <v>46.1669357120133</v>
+        <v>36.05502308782279</v>
       </c>
       <c r="J5" t="n">
-        <v>31.22008132062331</v>
+        <v>29.45320324816508</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>45.73543372935591</v>
       </c>
       <c r="L5" t="n">
-        <v>49.50919577672553</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>45.17343441086561</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>36.5335396885752</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.41395254536376</v>
+        <v>25.85618739422027</v>
       </c>
       <c r="P5" t="n">
-        <v>94.25683976514469</v>
+        <v>32.63115182137226</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>88.74635900442654</v>
+        <v>22.65943567836407</v>
       </c>
       <c r="S5" t="n">
-        <v>75.38860659479826</v>
+        <v>9.446517220936917</v>
       </c>
       <c r="T5" t="n">
-        <v>54.63539574558833</v>
+        <v>64.64001050866418</v>
       </c>
       <c r="U5" t="n">
-        <v>71.14270672875257</v>
+        <v>60.43051178224279</v>
       </c>
       <c r="V5" t="n">
-        <v>66.32028688868266</v>
+        <v>22.42235464337332</v>
       </c>
       <c r="W5" t="n">
-        <v>130.2755029739796</v>
+        <v>151.7614391256599</v>
       </c>
       <c r="X5" t="n">
-        <v>37.95254391607395</v>
+        <v>22.88999730662648</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.26198232253993</v>
+        <v>120.4713227551549</v>
       </c>
       <c r="Z5" t="n">
-        <v>39.57256031775707</v>
+        <v>12.39209815419187</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.72313469146448</v>
+        <v>86.10619403964007</v>
       </c>
       <c r="AB5" t="n">
-        <v>59.55080319107105</v>
+        <v>24.00210900133437</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.12095692826932</v>
+        <v>40.30885887754586</v>
       </c>
       <c r="AD5" t="n">
-        <v>72.9066831726211</v>
+        <v>88.72671736754479</v>
       </c>
       <c r="AE5" t="n">
-        <v>17.95582661740864</v>
+        <v>11.23406507770307</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.25583163501589</v>
+        <v>169.164405210101</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>20.76898855641959</v>
       </c>
       <c r="AH5" t="n">
-        <v>45.10754906672962</v>
+        <v>33.51987079542671</v>
       </c>
       <c r="AI5" t="n">
-        <v>41.81192688790786</v>
+        <v>35.89241791957897</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>12.26825106278244</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.9911182909804</v>
+        <v>23.12279165982708</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.122627887210982</v>
+        <v>46.26720028549734</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>10.53678440740751</v>
       </c>
       <c r="AN5" t="n">
-        <v>30.00712719991567</v>
+        <v>26.84187905961512</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.84466156926851</v>
+        <v>0.431023676073885</v>
       </c>
       <c r="AP5" t="n">
-        <v>12.48460113139146</v>
+        <v>18.90708158165972</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19.70263627933144</v>
+        <v>19.86348426589289</v>
       </c>
       <c r="AR5" t="n">
-        <v>27.38745614175008</v>
+        <v>20.93857652577133</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.1971251679587337</v>
+        <v>10.57972463116607</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.366755667715207</v>
+        <v>32.19336379545523</v>
       </c>
       <c r="AU5" t="n">
-        <v>28.92453086079261</v>
+        <v>29.09070210213428</v>
       </c>
       <c r="AV5" t="n">
-        <v>40.00448020849262</v>
+        <v>22.42396601615146</v>
       </c>
       <c r="AW5" t="n">
-        <v>18.11731947203685</v>
+        <v>35.47587080403059</v>
       </c>
       <c r="AX5" t="n">
-        <v>24.6963856251669</v>
+        <v>29.05998711847434</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.711600856400771</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5.977518977526808</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.2795652824885</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.001951109781389</v>
+        <v>19.44418139812151</v>
       </c>
       <c r="I6" t="n">
-        <v>19.17721237894909</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.78776218866492</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.44024894269439</v>
+        <v>2.460728042847655</v>
       </c>
       <c r="L6" t="n">
-        <v>36.35725784317622</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>37.45695576169528</v>
+        <v>25.29908484328399</v>
       </c>
       <c r="N6" t="n">
-        <v>18.19149385083964</v>
+        <v>7.230026522505984</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>23.75098696455174</v>
       </c>
       <c r="P6" t="n">
-        <v>14.68827695810254</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.067864676035676</v>
+        <v>18.21722388975807</v>
       </c>
       <c r="R6" t="n">
-        <v>9.282166760436933</v>
+        <v>25.7175894414805</v>
       </c>
       <c r="S6" t="n">
-        <v>9.49965664044192</v>
+        <v>22.27498252129303</v>
       </c>
       <c r="T6" t="n">
-        <v>12.33404252074262</v>
+        <v>50.69840234768797</v>
       </c>
       <c r="U6" t="n">
-        <v>20.77239594503848</v>
+        <v>31.58002765028027</v>
       </c>
       <c r="V6" t="n">
-        <v>14.38279301597602</v>
+        <v>19.89226147055467</v>
       </c>
       <c r="W6" t="n">
-        <v>21.11374428505408</v>
+        <v>36.85528838272013</v>
       </c>
       <c r="X6" t="n">
-        <v>28.81398349319954</v>
+        <v>23.68482372386948</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.83627950725893</v>
+        <v>16.03685765920234</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>25.83679916136458</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.29565206226485</v>
+        <v>12.36918335690393</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.320075370236482</v>
+        <v>13.09799972041353</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.53489897618001</v>
+        <v>29.52473806869703</v>
       </c>
       <c r="AD6" t="n">
-        <v>26.97362890697452</v>
+        <v>19.69723568037321</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.97502871022999</v>
+        <v>27.03483650665403</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.07734979553952</v>
+        <v>2.581931444767223</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.33834808436966</v>
+        <v>10.04289295994952</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.922630868905829</v>
+        <v>7.062827098985363</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.345547129141836</v>
+        <v>12.94803952800308</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18.03009213184709</v>
+        <v>15.38421021938322</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.104744168161703</v>
+        <v>3.481325463654539</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.489654748667285</v>
+        <v>11.25169542983155</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.458249546837098</v>
+        <v>2.418398914039856</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.834423949043462</v>
+        <v>8.06648040647223</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.069961995233701</v>
+        <v>2.389347272356209</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.14319337106867</v>
+        <v>4.431706729988078</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.746450258656156</v>
+        <v>7.329733843232562</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.278317123714615</v>
+        <v>3.890134086558803</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.2550505408828559</v>
+        <v>0.4515931467713989</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.271820716276032</v>
+        <v>4.534899996192785</v>
       </c>
       <c r="AU6" t="n">
-        <v>14.03621470251885</v>
+        <v>1.24662161578785</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.879697410425627</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.38848988320719</v>
+        <v>3.632204499304663</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.845350530273071</v>
+        <v>2.030804011740973</v>
       </c>
     </row>
     <row r="7">
@@ -1453,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>19.78610658329643</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.11151155589919</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1465,136 +1465,136 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19.57159107444023</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.36168388539596</v>
+        <v>23.06718684572586</v>
       </c>
       <c r="I7" t="n">
-        <v>15.38069932779891</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.73925355194613</v>
+        <v>2.699058462127571</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.02812069179063</v>
       </c>
       <c r="L7" t="n">
-        <v>63.56224648275096</v>
+        <v>4.953548658942315</v>
       </c>
       <c r="M7" t="n">
-        <v>34.37747060202705</v>
+        <v>50.96052343060784</v>
       </c>
       <c r="N7" t="n">
-        <v>124.8488005674105</v>
+        <v>27.88676119234213</v>
       </c>
       <c r="O7" t="n">
-        <v>112.440420245152</v>
+        <v>12.94789430486731</v>
       </c>
       <c r="P7" t="n">
-        <v>45.85442067266116</v>
+        <v>29.39458307804093</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.812237896827206</v>
+        <v>64.02729280032024</v>
       </c>
       <c r="R7" t="n">
-        <v>63.19702510064329</v>
+        <v>17.26515666288329</v>
       </c>
       <c r="S7" t="n">
-        <v>41.366800910502</v>
+        <v>149.3010723242353</v>
       </c>
       <c r="T7" t="n">
-        <v>49.26221496149538</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>35.24247249508854</v>
+        <v>81.13051300585383</v>
       </c>
       <c r="V7" t="n">
-        <v>24.40779363505546</v>
+        <v>14.41610082920803</v>
       </c>
       <c r="W7" t="n">
-        <v>12.22755641786338</v>
+        <v>32.46923717216195</v>
       </c>
       <c r="X7" t="n">
-        <v>17.3129152956557</v>
+        <v>32.84014162722673</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.790952747482377</v>
+        <v>33.33876573248679</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.557711204479741</v>
+        <v>33.39156798387823</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.093423605901909</v>
+        <v>7.012071450730652</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.35048369951816</v>
+        <v>10.00797282223089</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.11122374824963</v>
+        <v>1.445391947916026</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.19780248414692</v>
+        <v>19.40618682556071</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>40.62309820438352</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.63417845959297</v>
+        <v>0.7162382746751059</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.878728870781006</v>
+        <v>34.57433538401776</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.290018163080084</v>
+        <v>5.949090713738114</v>
       </c>
       <c r="AI7" t="n">
-        <v>13.09946255905084</v>
+        <v>57.28111537855557</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.570301157029309</v>
+        <v>2.991029682831331</v>
       </c>
       <c r="AK7" t="n">
-        <v>21.19199790103944</v>
+        <v>6.410423719426277</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>10.42414727726593</v>
       </c>
       <c r="AM7" t="n">
-        <v>20.88864629545948</v>
+        <v>5.982948333428697</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.693565328806929</v>
+        <v>4.509013491095398</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.69546117600119</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.340469812566267</v>
+        <v>29.13126274225007</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.17114923751641</v>
+        <v>0.6522151324684412</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.1530680029813281</v>
+        <v>0.6691544508014879</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.754560738896867</v>
+        <v>26.08749883079982</v>
       </c>
       <c r="AT7" t="n">
-        <v>11.95476446130573</v>
+        <v>0.3022622958738848</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.531460714942058</v>
+        <v>4.442112227825572</v>
       </c>
       <c r="AV7" t="n">
-        <v>7.515095197553714</v>
+        <v>3.044539916625677</v>
       </c>
       <c r="AW7" t="n">
-        <v>10.74679992444972</v>
+        <v>11.56555239646634</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.353908840058113</v>
+        <v>12.27345858320754</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>31.37697466829373</v>
       </c>
       <c r="D8" t="n">
-        <v>17.87032088983125</v>
+        <v>85.53724117298384</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>15.1410687751844</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>40.76211486781614</v>
       </c>
       <c r="H8" t="n">
-        <v>21.06320674580989</v>
+        <v>26.4705241112731</v>
       </c>
       <c r="I8" t="n">
-        <v>57.57756026681614</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>240.9425837564366</v>
+        <v>18.85024679289482</v>
       </c>
       <c r="K8" t="n">
-        <v>132.7739252161109</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>98.7102229298733</v>
+        <v>100.9814093764214</v>
       </c>
       <c r="M8" t="n">
-        <v>91.13796099030208</v>
+        <v>48.07140005328517</v>
       </c>
       <c r="N8" t="n">
-        <v>104.2796190728414</v>
+        <v>43.97364798599479</v>
       </c>
       <c r="O8" t="n">
-        <v>44.41638577592256</v>
+        <v>44.07078365786357</v>
       </c>
       <c r="P8" t="n">
-        <v>33.707007263661</v>
+        <v>124.947346733743</v>
       </c>
       <c r="Q8" t="n">
-        <v>38.63817111598198</v>
+        <v>46.32925343642003</v>
       </c>
       <c r="R8" t="n">
-        <v>100.9777217493075</v>
+        <v>110.7462205471924</v>
       </c>
       <c r="S8" t="n">
-        <v>55.48646293659745</v>
+        <v>74.2137778257364</v>
       </c>
       <c r="T8" t="n">
-        <v>36.20978759247705</v>
+        <v>86.29013069938338</v>
       </c>
       <c r="U8" t="n">
-        <v>109.1125433418856</v>
+        <v>212.2481425169168</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2244716954955</v>
+        <v>55.29357418469513</v>
       </c>
       <c r="W8" t="n">
-        <v>51.34045297918678</v>
+        <v>24.43011441548094</v>
       </c>
       <c r="X8" t="n">
-        <v>41.45418218951488</v>
+        <v>99.21298194712915</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.60154746245529</v>
+        <v>35.01758994925217</v>
       </c>
       <c r="Z8" t="n">
-        <v>112.834124392876</v>
+        <v>25.75046157263239</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.09393890657473</v>
+        <v>92.11816443223964</v>
       </c>
       <c r="AB8" t="n">
-        <v>136.2692995700094</v>
+        <v>53.49533611556126</v>
       </c>
       <c r="AC8" t="n">
-        <v>52.54916508127243</v>
+        <v>99.73919462634056</v>
       </c>
       <c r="AD8" t="n">
-        <v>115.58856871922</v>
+        <v>125.0876249711209</v>
       </c>
       <c r="AE8" t="n">
-        <v>101.8702924566889</v>
+        <v>96.38061963959815</v>
       </c>
       <c r="AF8" t="n">
-        <v>164.789998109451</v>
+        <v>107.1999808743322</v>
       </c>
       <c r="AG8" t="n">
-        <v>151.1630710270145</v>
+        <v>206.7488209142134</v>
       </c>
       <c r="AH8" t="n">
-        <v>62.03028102693567</v>
+        <v>87.00832951591961</v>
       </c>
       <c r="AI8" t="n">
-        <v>55.09341043921714</v>
+        <v>51.50318215388028</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26.64716163270868</v>
+        <v>78.56138154900925</v>
       </c>
       <c r="AK8" t="n">
-        <v>67.77703050354455</v>
+        <v>40.65663597893594</v>
       </c>
       <c r="AL8" t="n">
-        <v>38.45543205219972</v>
+        <v>119.246096718271</v>
       </c>
       <c r="AM8" t="n">
-        <v>26.49522512814399</v>
+        <v>7.637303842391599</v>
       </c>
       <c r="AN8" t="n">
-        <v>25.00338711114901</v>
+        <v>18.50895953675847</v>
       </c>
       <c r="AO8" t="n">
-        <v>51.93485384112674</v>
+        <v>14.70822913430247</v>
       </c>
       <c r="AP8" t="n">
-        <v>21.50509745266886</v>
+        <v>36.68606489979165</v>
       </c>
       <c r="AQ8" t="n">
-        <v>28.50815430767953</v>
+        <v>13.75223298767951</v>
       </c>
       <c r="AR8" t="n">
-        <v>16.25485846314459</v>
+        <v>25.8673330533764</v>
       </c>
       <c r="AS8" t="n">
-        <v>21.94818629491586</v>
+        <v>34.69718617314376</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.2405218947071</v>
+        <v>76.73430029026545</v>
       </c>
       <c r="AU8" t="n">
-        <v>24.68390819061169</v>
+        <v>17.68097505001489</v>
       </c>
       <c r="AV8" t="n">
-        <v>15.53568861767975</v>
+        <v>21.89669317911504</v>
       </c>
       <c r="AW8" t="n">
-        <v>66.60933306243808</v>
+        <v>23.52319200348063</v>
       </c>
       <c r="AX8" t="n">
-        <v>12.60443868991845</v>
+        <v>20.93488030992479</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.376415493817807</v>
+        <v>0.1370302121167963</v>
       </c>
       <c r="D9" t="n">
-        <v>1.321714817305663</v>
+        <v>5.162803262644062</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.255193771146003</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.738695123243718</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.525269886628194</v>
       </c>
       <c r="H9" t="n">
-        <v>8.242783047123364</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.25888999485742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.410192942926325</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.559986199712148</v>
+        <v>2.211000844466855</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6006816485505053</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8684853569947787</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9403939682760289</v>
+        <v>2.729924759900844</v>
       </c>
       <c r="O9" t="n">
-        <v>5.820712146981748</v>
+        <v>2.331247144773196</v>
       </c>
       <c r="P9" t="n">
-        <v>8.080123125577639</v>
+        <v>0.1517721367527407</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.307980755747224</v>
+        <v>4.509766999853898</v>
       </c>
       <c r="R9" t="n">
-        <v>1.640300823199172</v>
+        <v>2.338729368716626</v>
       </c>
       <c r="S9" t="n">
-        <v>3.051352768741073</v>
+        <v>9.174642334960557</v>
       </c>
       <c r="T9" t="n">
-        <v>7.207027693471828</v>
+        <v>0.8641120141911736</v>
       </c>
       <c r="U9" t="n">
-        <v>1.003524046184306</v>
+        <v>2.581579658176403</v>
       </c>
       <c r="V9" t="n">
-        <v>7.454417539349831</v>
+        <v>8.718732941092513</v>
       </c>
       <c r="W9" t="n">
-        <v>11.944947335791</v>
+        <v>4.036657062709546</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4482181945433372</v>
+        <v>3.347348278706812</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.410953613987052</v>
+        <v>5.03171646605273</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.416518914824482</v>
+        <v>2.029075124928315</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.081572044339953</v>
+        <v>4.76727659179141</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.97721839541761</v>
+        <v>6.378049810370081</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.683735728900449</v>
+        <v>10.08318988893305</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.768519858268037</v>
+        <v>4.182411142436403</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.143557181381113</v>
+        <v>9.741146320839583</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.650018117072198</v>
+        <v>4.100615287277421</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.159348092774791</v>
+        <v>3.726672468485577</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.868875861151818</v>
+        <v>9.414090610191375</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.417441960721709</v>
+        <v>3.285405854513858</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.952866746634426</v>
+        <v>2.827028747898334</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.370628111791041</v>
+        <v>4.961609885309876</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.341551831172736</v>
+        <v>3.615019096850311</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.506072100686776</v>
+        <v>1.871641099698328</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.71785147734203</v>
+        <v>5.080785985660955</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.353778243153298</v>
+        <v>2.949528251432044</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.417703661732687</v>
+        <v>2.986973841394074</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.715368860264828</v>
+        <v>4.411674522698944</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.827077694811364</v>
+        <v>4.298466883887576</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.592932457178059</v>
+        <v>7.743343876312898</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.868972306292076</v>
+        <v>6.558857669984977</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.909572993708395</v>
+        <v>3.957607635667716</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.680088694620735</v>
+        <v>4.324449916415978</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.183361172905589</v>
+        <v>3.149804801200237</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.283655869811097</v>
+        <v>1.393254242683446</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.1276620316121</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.897593156872317</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>144.3514239705569</v>
       </c>
       <c r="G10" t="n">
-        <v>13.20009198255114</v>
+        <v>58.49321192084777</v>
       </c>
       <c r="H10" t="n">
-        <v>19.93267556540721</v>
+        <v>90.19432452358828</v>
       </c>
       <c r="I10" t="n">
-        <v>71.21729828150956</v>
+        <v>82.50837206589719</v>
       </c>
       <c r="J10" t="n">
-        <v>13.3361677644446</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>36.31144065203358</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>162.5906574220454</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>75.56344272087372</v>
+        <v>108.4556205358672</v>
       </c>
       <c r="N10" t="n">
-        <v>27.18961315422912</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>50.47376425722815</v>
+        <v>54.22243347141356</v>
       </c>
       <c r="P10" t="n">
-        <v>70.03603787049406</v>
+        <v>220.2093220849941</v>
       </c>
       <c r="Q10" t="n">
-        <v>242.2838856745623</v>
+        <v>34.46313654726119</v>
       </c>
       <c r="R10" t="n">
-        <v>114.5240673880047</v>
+        <v>152.9736685271899</v>
       </c>
       <c r="S10" t="n">
-        <v>52.10602348636545</v>
+        <v>54.85678187734023</v>
       </c>
       <c r="T10" t="n">
-        <v>34.36128993315545</v>
+        <v>47.48307189401855</v>
       </c>
       <c r="U10" t="n">
-        <v>78.41903191834513</v>
+        <v>108.403051636403</v>
       </c>
       <c r="V10" t="n">
-        <v>16.26673880553125</v>
+        <v>92.20990137869643</v>
       </c>
       <c r="W10" t="n">
-        <v>70.05954158241251</v>
+        <v>62.03529085124476</v>
       </c>
       <c r="X10" t="n">
-        <v>78.83326763954649</v>
+        <v>60.39621440826905</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.84305988190573</v>
+        <v>95.90165463388401</v>
       </c>
       <c r="Z10" t="n">
-        <v>42.38125521411736</v>
+        <v>50.36195645047184</v>
       </c>
       <c r="AA10" t="n">
-        <v>74.29112862253169</v>
+        <v>52.75038696867216</v>
       </c>
       <c r="AB10" t="n">
-        <v>115.066674099938</v>
+        <v>45.70656466736578</v>
       </c>
       <c r="AC10" t="n">
-        <v>63.24707227081251</v>
+        <v>83.33774410681748</v>
       </c>
       <c r="AD10" t="n">
-        <v>93.4890787819745</v>
+        <v>48.31242759502729</v>
       </c>
       <c r="AE10" t="n">
-        <v>56.06716166598704</v>
+        <v>96.68994350420603</v>
       </c>
       <c r="AF10" t="n">
-        <v>85.29955958324362</v>
+        <v>78.76102824104819</v>
       </c>
       <c r="AG10" t="n">
-        <v>110.5895968703687</v>
+        <v>65.3475884615319</v>
       </c>
       <c r="AH10" t="n">
-        <v>80.09260095700112</v>
+        <v>67.71770576616754</v>
       </c>
       <c r="AI10" t="n">
-        <v>32.62107368778659</v>
+        <v>38.07758124004081</v>
       </c>
       <c r="AJ10" t="n">
-        <v>64.61213279718622</v>
+        <v>19.29587050193072</v>
       </c>
       <c r="AK10" t="n">
-        <v>43.91135310163687</v>
+        <v>37.98955011052351</v>
       </c>
       <c r="AL10" t="n">
-        <v>37.07142678476499</v>
+        <v>14.37742898191432</v>
       </c>
       <c r="AM10" t="n">
-        <v>59.18703713045038</v>
+        <v>16.74407233659722</v>
       </c>
       <c r="AN10" t="n">
-        <v>45.22955411473514</v>
+        <v>19.54100110192345</v>
       </c>
       <c r="AO10" t="n">
-        <v>31.11824721650232</v>
+        <v>26.08826792482829</v>
       </c>
       <c r="AP10" t="n">
-        <v>60.91172907563762</v>
+        <v>28.65962615855633</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14.77035640541349</v>
+        <v>5.94469058633873</v>
       </c>
       <c r="AR10" t="n">
-        <v>19.60394869408954</v>
+        <v>14.35974924235298</v>
       </c>
       <c r="AS10" t="n">
-        <v>13.84420544925058</v>
+        <v>16.48707606133671</v>
       </c>
       <c r="AT10" t="n">
-        <v>26.7647255078456</v>
+        <v>2.214150094448663</v>
       </c>
       <c r="AU10" t="n">
-        <v>19.01072314946581</v>
+        <v>12.64254079714704</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.487377601203242</v>
+        <v>9.361764954304178</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.460922397483209</v>
+        <v>11.56966405996426</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.042387509015199</v>
+        <v>21.05595804800481</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4.291076706647193</v>
+        <v>32.99113652399785</v>
       </c>
       <c r="D11" t="n">
-        <v>20.85514079161122</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>58.61607460733812</v>
       </c>
       <c r="F11" t="n">
-        <v>11.07952404464691</v>
+        <v>69.73135020606584</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>59.32745416194075</v>
       </c>
       <c r="H11" t="n">
-        <v>22.46351797730153</v>
+        <v>10.28803621601826</v>
       </c>
       <c r="I11" t="n">
-        <v>13.49877151148089</v>
+        <v>113.0349006264345</v>
       </c>
       <c r="J11" t="n">
-        <v>23.52644083103466</v>
+        <v>48.02499737423947</v>
       </c>
       <c r="K11" t="n">
-        <v>86.39317723110001</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>84.5707262632689</v>
+        <v>35.39346407536225</v>
       </c>
       <c r="M11" t="n">
-        <v>51.19122721772078</v>
+        <v>66.24782853030784</v>
       </c>
       <c r="N11" t="n">
-        <v>28.71772432181995</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>184.2490247897663</v>
+        <v>42.45738499855216</v>
       </c>
       <c r="P11" t="n">
-        <v>11.60559005756961</v>
+        <v>37.91772304255477</v>
       </c>
       <c r="Q11" t="n">
-        <v>108.07366861037</v>
+        <v>130.1431589183204</v>
       </c>
       <c r="R11" t="n">
-        <v>27.28075328510564</v>
+        <v>73.91799958957709</v>
       </c>
       <c r="S11" t="n">
-        <v>203.6931477669149</v>
+        <v>21.06080048043888</v>
       </c>
       <c r="T11" t="n">
-        <v>182.2813328233385</v>
+        <v>46.99273555153709</v>
       </c>
       <c r="U11" t="n">
-        <v>43.18277817502926</v>
+        <v>71.5194076268054</v>
       </c>
       <c r="V11" t="n">
-        <v>21.70533607602397</v>
+        <v>32.9008549722618</v>
       </c>
       <c r="W11" t="n">
-        <v>26.60084218825139</v>
+        <v>33.51191438812643</v>
       </c>
       <c r="X11" t="n">
-        <v>30.9647167479148</v>
+        <v>43.52492225241507</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.43117218905162</v>
+        <v>16.77232425856321</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.33406768584673</v>
+        <v>14.46317515473671</v>
       </c>
       <c r="AA11" t="n">
-        <v>33.07974739702257</v>
+        <v>45.7440543854081</v>
       </c>
       <c r="AB11" t="n">
-        <v>20.15743770995823</v>
+        <v>29.60373923973492</v>
       </c>
       <c r="AC11" t="n">
-        <v>104.9236440471873</v>
+        <v>23.94925976309836</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.90286230653831</v>
+        <v>13.39541801727025</v>
       </c>
       <c r="AE11" t="n">
-        <v>44.65390078957954</v>
+        <v>17.73878202707735</v>
       </c>
       <c r="AF11" t="n">
-        <v>28.92102053716245</v>
+        <v>41.81804162828588</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.24111114520889</v>
+        <v>22.11616776987237</v>
       </c>
       <c r="AH11" t="n">
-        <v>21.64666395459125</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>91.3353150140134</v>
+        <v>46.9715436739219</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.85521437955964</v>
+        <v>55.41767168421839</v>
       </c>
       <c r="AK11" t="n">
-        <v>28.19340222242631</v>
+        <v>113.3126551656342</v>
       </c>
       <c r="AL11" t="n">
-        <v>32.69352661746597</v>
+        <v>23.86454469515429</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.033750861886169</v>
+        <v>20.92505898435234</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.609157131753424</v>
+        <v>16.48547945049522</v>
       </c>
       <c r="AO11" t="n">
-        <v>29.33089625998968</v>
+        <v>25.96141469226097</v>
       </c>
       <c r="AP11" t="n">
-        <v>24.21670222222032</v>
+        <v>18.03811615510696</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23.67598035355966</v>
+        <v>46.79466830102071</v>
       </c>
       <c r="AR11" t="n">
-        <v>12.1312135955464</v>
+        <v>36.90182860532911</v>
       </c>
       <c r="AS11" t="n">
-        <v>31.47963843377652</v>
+        <v>27.36489429648456</v>
       </c>
       <c r="AT11" t="n">
-        <v>17.64010419611224</v>
+        <v>16.47079290014531</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.555685025476343</v>
+        <v>29.65227794278899</v>
       </c>
       <c r="AV11" t="n">
-        <v>29.60492221177319</v>
+        <v>44.66704440681463</v>
       </c>
       <c r="AW11" t="n">
-        <v>25.12328984156222</v>
+        <v>7.430196971739115</v>
       </c>
       <c r="AX11" t="n">
-        <v>14.04780769243661</v>
+        <v>7.420903585187164</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4.491750389975116</v>
+        <v>18.37058219927691</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>21.62742272308657</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.39317779239065</v>
+        <v>5.065297326196459</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7.558211745201105</v>
       </c>
       <c r="H12" t="n">
-        <v>9.954337083676574</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>31.87618681812997</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.6620399886919</v>
+        <v>1.128414442155171</v>
       </c>
       <c r="K12" t="n">
-        <v>38.6397419808585</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.17528740360699</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.814882512351236</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50.49660248780366</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.47466020641414</v>
+        <v>11.67926350652978</v>
       </c>
       <c r="P12" t="n">
-        <v>49.58984965955084</v>
+        <v>55.31475610294358</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.7052588460894</v>
+        <v>28.95130796033148</v>
       </c>
       <c r="R12" t="n">
-        <v>29.91187071338606</v>
+        <v>19.07252732188376</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>11.14526075494977</v>
       </c>
       <c r="T12" t="n">
-        <v>22.17109865640224</v>
+        <v>82.60491473616464</v>
       </c>
       <c r="U12" t="n">
-        <v>7.756221615207963</v>
+        <v>22.86285860631784</v>
       </c>
       <c r="V12" t="n">
-        <v>4.535714818979899</v>
+        <v>35.91477374295956</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32265762465068</v>
+        <v>11.74144364393402</v>
       </c>
       <c r="X12" t="n">
-        <v>28.0944598349385</v>
+        <v>16.38035740062137</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.04915846502513</v>
+        <v>14.07603845423258</v>
       </c>
       <c r="Z12" t="n">
-        <v>30.98858738758677</v>
+        <v>16.93498148483483</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.86518338665659</v>
+        <v>5.497740826725053</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.69057422359619</v>
+        <v>38.20210625845584</v>
       </c>
       <c r="AC12" t="n">
-        <v>17.34468845989751</v>
+        <v>41.42226079493612</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.658893819397397</v>
+        <v>22.44278287602959</v>
       </c>
       <c r="AE12" t="n">
-        <v>24.09021642479948</v>
+        <v>5.519711915261005</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.02997790962829</v>
+        <v>16.79885281083475</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.539243371830263</v>
+        <v>10.19630165251588</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.167776994286</v>
+        <v>8.447042111770717</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.825229615269038</v>
+        <v>15.32088026143754</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19.51345976392828</v>
+        <v>28.77236308708272</v>
       </c>
       <c r="AK12" t="n">
-        <v>5.307031357872837</v>
+        <v>14.6346731711617</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.124928415828873</v>
+        <v>25.67464566882377</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.09462198396876875</v>
+        <v>2.610450924004629</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.385046894995112</v>
+        <v>3.455062593332734</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.038382273345877</v>
+        <v>5.69956509939071</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.118319181627328</v>
+        <v>2.523123793943375</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.767558698414323</v>
+        <v>7.604858979820136</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.839779117657938</v>
+        <v>2.31913018403606</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.746845225603749</v>
+        <v>6.062480564179665</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.977373921252939</v>
+        <v>4.688711979546003</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.728484809179642</v>
+        <v>3.609007916938362</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>1.350899543517255</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.704195213828764</v>
+        <v>2.995720648886244</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.770073673318898</v>
+        <v>1.573548768402592</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>15.52938379076004</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>14.29311232242519</v>
       </c>
       <c r="E13" t="n">
-        <v>14.23980353997889</v>
+        <v>9.686418769519797</v>
       </c>
       <c r="F13" t="n">
-        <v>6.737158146147227</v>
+        <v>41.93516507645058</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.1669273295439</v>
       </c>
       <c r="H13" t="n">
-        <v>11.36473279463129</v>
+        <v>168.7650060420635</v>
       </c>
       <c r="I13" t="n">
-        <v>33.0255290353997</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5.133027984115508</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>47.17420764693135</v>
+        <v>6.307735533181186</v>
       </c>
       <c r="L13" t="n">
-        <v>40.26168156731578</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>18.74461846838711</v>
+        <v>29.16679025340079</v>
       </c>
       <c r="N13" t="n">
-        <v>64.91831348977641</v>
+        <v>1.569034762349301</v>
       </c>
       <c r="O13" t="n">
-        <v>110.8364143108074</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>83.23024223524077</v>
+        <v>15.72082337066643</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.27179336296768</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.32355112913221</v>
+        <v>7.927659065723638</v>
       </c>
       <c r="S13" t="n">
-        <v>8.522898560279433</v>
+        <v>7.592259798285498</v>
       </c>
       <c r="T13" t="n">
-        <v>36.1289257735212</v>
+        <v>38.13714626870544</v>
       </c>
       <c r="U13" t="n">
-        <v>8.994825799144882</v>
+        <v>32.05893911283351</v>
       </c>
       <c r="V13" t="n">
-        <v>12.44202488058046</v>
+        <v>25.36428520765552</v>
       </c>
       <c r="W13" t="n">
-        <v>4.596599560696525</v>
+        <v>22.49834839311169</v>
       </c>
       <c r="X13" t="n">
-        <v>1.953459559261769</v>
+        <v>26.75268040402199</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.01675625145037</v>
+        <v>19.07565446255092</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.14269985724634</v>
+        <v>17.20554685696759</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>19.94021356608575</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.41346373690519</v>
+        <v>1.968897430814217</v>
       </c>
       <c r="AC13" t="n">
-        <v>29.0461261879401</v>
+        <v>4.778294184402531</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.509245026699902</v>
+        <v>16.74425967066205</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.895960008430207</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.0128724345671</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.472018970475593</v>
+        <v>29.85241562662021</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.4250075807486</v>
+        <v>12.04911157489701</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>8.419209700078277</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.069285697761656</v>
+        <v>0.359358356756776</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>34.55171629492238</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.596970074700434</v>
+        <v>14.0531397326778</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>13.46250514379045</v>
       </c>
       <c r="AN13" t="n">
-        <v>25.27031829471313</v>
+        <v>10.40990135987912</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.8846186170353088</v>
+        <v>26.09066155615537</v>
       </c>
       <c r="AP13" t="n">
-        <v>9.981276955468111</v>
+        <v>19.20608851847537</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.679413904485355</v>
+        <v>8.037920449629057</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.817897380805982</v>
+        <v>9.409944288631351</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.63789417195758</v>
+        <v>13.9163053413915</v>
       </c>
       <c r="AT13" t="n">
-        <v>10.76959432190234</v>
+        <v>1.636535415581429</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.151582006945915</v>
+        <v>37.44528558654297</v>
       </c>
       <c r="AV13" t="n">
-        <v>11.38324175917201</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.793819004679631</v>
+        <v>8.858259454618265</v>
       </c>
       <c r="AX13" t="n">
-        <v>13.00694951712826</v>
+        <v>10.05281651660371</v>
       </c>
     </row>
     <row r="14">
@@ -2520,145 +2520,145 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.24874219048225</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>31.63231508077007</v>
       </c>
       <c r="F14" t="n">
-        <v>77.34604728206556</v>
+        <v>4.546745536546434</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>47.0512217263116</v>
       </c>
       <c r="I14" t="n">
-        <v>112.9329967371827</v>
+        <v>29.43537205411342</v>
       </c>
       <c r="J14" t="n">
-        <v>359.5247028146447</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>28.22735130494629</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>20.25174245778779</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>331.0579273151465</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>90.77381063018672</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>91.31150977456659</v>
+        <v>23.34048023578153</v>
       </c>
       <c r="P14" t="n">
-        <v>39.83416201838786</v>
+        <v>57.71059749519132</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.99662172564106</v>
+        <v>23.01019860521368</v>
       </c>
       <c r="R14" t="n">
-        <v>64.23812798069778</v>
+        <v>160.7866714619573</v>
       </c>
       <c r="S14" t="n">
-        <v>56.24353310678453</v>
+        <v>26.84020999305957</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6623324019941</v>
+        <v>29.17289695458145</v>
       </c>
       <c r="U14" t="n">
-        <v>42.65291606031686</v>
+        <v>91.38274478202311</v>
       </c>
       <c r="V14" t="n">
-        <v>286.0547431278991</v>
+        <v>61.40428654527634</v>
       </c>
       <c r="W14" t="n">
-        <v>88.51806801581031</v>
+        <v>130.3404339159206</v>
       </c>
       <c r="X14" t="n">
-        <v>51.89043408302344</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.5697489340006</v>
+        <v>122.5845090597181</v>
       </c>
       <c r="Z14" t="n">
-        <v>36.83747866920575</v>
+        <v>63.76873707581564</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.8763513033668</v>
+        <v>85.0025591321467</v>
       </c>
       <c r="AB14" t="n">
-        <v>73.48832705743764</v>
+        <v>37.30487427026778</v>
       </c>
       <c r="AC14" t="n">
-        <v>110.1072955294078</v>
+        <v>130.7578005573768</v>
       </c>
       <c r="AD14" t="n">
-        <v>171.150307579345</v>
+        <v>86.13285791600424</v>
       </c>
       <c r="AE14" t="n">
-        <v>114.9945690020796</v>
+        <v>52.46453920864793</v>
       </c>
       <c r="AF14" t="n">
-        <v>170.0181604084894</v>
+        <v>150.8864561767196</v>
       </c>
       <c r="AG14" t="n">
-        <v>77.969582112914</v>
+        <v>159.5922598530524</v>
       </c>
       <c r="AH14" t="n">
-        <v>92.32254529383476</v>
+        <v>84.07620828388181</v>
       </c>
       <c r="AI14" t="n">
-        <v>90.43527862200538</v>
+        <v>7.498748782732495</v>
       </c>
       <c r="AJ14" t="n">
-        <v>101.5727759492645</v>
+        <v>39.55494397578902</v>
       </c>
       <c r="AK14" t="n">
-        <v>88.77359848706497</v>
+        <v>106.2574414968767</v>
       </c>
       <c r="AL14" t="n">
-        <v>123.3176636274118</v>
+        <v>158.5860107916943</v>
       </c>
       <c r="AM14" t="n">
-        <v>64.80763781701449</v>
+        <v>32.03944563598762</v>
       </c>
       <c r="AN14" t="n">
-        <v>100.8298888846425</v>
+        <v>21.68745972825741</v>
       </c>
       <c r="AO14" t="n">
-        <v>31.01870780542594</v>
+        <v>18.92821632871432</v>
       </c>
       <c r="AP14" t="n">
-        <v>26.66772676587177</v>
+        <v>26.42404963779297</v>
       </c>
       <c r="AQ14" t="n">
-        <v>35.65765926986979</v>
+        <v>44.82153312003825</v>
       </c>
       <c r="AR14" t="n">
-        <v>24.60969387995096</v>
+        <v>16.01873690874123</v>
       </c>
       <c r="AS14" t="n">
-        <v>17.6835789583623</v>
+        <v>24.42180814974134</v>
       </c>
       <c r="AT14" t="n">
-        <v>20.5735433967244</v>
+        <v>50.05865332055769</v>
       </c>
       <c r="AU14" t="n">
-        <v>46.09185954632756</v>
+        <v>20.64857099623629</v>
       </c>
       <c r="AV14" t="n">
-        <v>16.26579374216233</v>
+        <v>48.69090999637473</v>
       </c>
       <c r="AW14" t="n">
-        <v>32.59112541872316</v>
+        <v>16.92681591485664</v>
       </c>
       <c r="AX14" t="n">
-        <v>33.11665126217538</v>
+        <v>30.59915614308493</v>
       </c>
     </row>
     <row r="15">
@@ -2672,145 +2672,145 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5.793667241521688</v>
       </c>
       <c r="E15" t="n">
-        <v>1.463794624211743</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.560423480127356</v>
       </c>
       <c r="H15" t="n">
-        <v>1.987420231452777</v>
+        <v>0.4437763136667122</v>
       </c>
       <c r="I15" t="n">
-        <v>5.162621615226552</v>
+        <v>2.167290060914165</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5302778943456086</v>
+        <v>3.191431961014476</v>
       </c>
       <c r="K15" t="n">
-        <v>5.83164934787894</v>
+        <v>3.705693239822264</v>
       </c>
       <c r="L15" t="n">
-        <v>5.097227672398796</v>
+        <v>4.093009756460089</v>
       </c>
       <c r="M15" t="n">
-        <v>4.07862392271289</v>
+        <v>3.949956794321154</v>
       </c>
       <c r="N15" t="n">
-        <v>3.850519118723219</v>
+        <v>1.456497579679612</v>
       </c>
       <c r="O15" t="n">
-        <v>4.434783876520751</v>
+        <v>13.43410128415075</v>
       </c>
       <c r="P15" t="n">
-        <v>2.693826116667441</v>
+        <v>9.276019786075757</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.890161626037914</v>
+        <v>3.422660922866613</v>
       </c>
       <c r="R15" t="n">
-        <v>6.853484338492744</v>
+        <v>3.496954325950091</v>
       </c>
       <c r="S15" t="n">
-        <v>9.44231247520057</v>
+        <v>0.5015842210991928</v>
       </c>
       <c r="T15" t="n">
-        <v>3.57587375012905</v>
+        <v>2.526928862068929</v>
       </c>
       <c r="U15" t="n">
-        <v>5.532499318319161</v>
+        <v>12.49493575959873</v>
       </c>
       <c r="V15" t="n">
-        <v>3.678261866431287</v>
+        <v>2.501439138557799</v>
       </c>
       <c r="W15" t="n">
-        <v>8.319897234351682</v>
+        <v>3.437250922359358</v>
       </c>
       <c r="X15" t="n">
-        <v>2.669244378931898</v>
+        <v>14.03673590737977</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.370235520215825</v>
+        <v>5.487786282254204</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.428834820921241</v>
+        <v>4.32285484723387</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.845271972803677</v>
+        <v>2.454427489004341</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.640731936451297</v>
+        <v>4.620551198580237</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.766493454757611</v>
+        <v>9.143936987541254</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.321433838681855</v>
+        <v>6.26785846307516</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.864813424212961</v>
+        <v>7.398211077898844</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.17144967562358</v>
+        <v>11.49216796313489</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.41444220204469</v>
+        <v>4.137553696798984</v>
       </c>
       <c r="AH15" t="n">
-        <v>3.994718523801078</v>
+        <v>4.397761813030798</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.820706013958047</v>
+        <v>4.044902866716255</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.591185473253915</v>
+        <v>1.18611088416204</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.57756372939552</v>
+        <v>8.361123234048813</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.263780795319468</v>
+        <v>9.068406627627956</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.43694435669383</v>
+        <v>4.037118695354083</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.682332606224163</v>
+        <v>4.956231652938256</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.866922865123168</v>
+        <v>5.56397131344486</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.929228253022216</v>
+        <v>3.759012185811213</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.051017463311422</v>
+        <v>5.819182773238293</v>
       </c>
       <c r="AR15" t="n">
-        <v>8.42654721980896</v>
+        <v>2.374693576079095</v>
       </c>
       <c r="AS15" t="n">
-        <v>6.72458278343452</v>
+        <v>6.428516522040288</v>
       </c>
       <c r="AT15" t="n">
-        <v>5.530108345229447</v>
+        <v>4.525088204423139</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.884515957738108</v>
+        <v>6.161694763780635</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.560670957566794</v>
+        <v>5.724886677953362</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.480695675107605</v>
+        <v>4.530598389643778</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.906743327420566</v>
+        <v>3.891470349017501</v>
       </c>
     </row>
     <row r="16">
@@ -2821,13 +2821,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.96039345498622</v>
+        <v>130.8184430406398</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>115.4710991666467</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2836,133 +2836,133 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29.6272215605574</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>184.2611379284914</v>
+        <v>39.17888236172426</v>
       </c>
       <c r="J16" t="n">
-        <v>107.1856532411467</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>93.34915100261554</v>
+        <v>21.4516088875413</v>
       </c>
       <c r="L16" t="n">
-        <v>85.54436406045916</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>15.05869362525584</v>
+        <v>155.8352268634714</v>
       </c>
       <c r="N16" t="n">
-        <v>73.04888811392833</v>
+        <v>32.06664031967615</v>
       </c>
       <c r="O16" t="n">
-        <v>38.52923696331069</v>
+        <v>43.12973941103881</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2152697905044</v>
+        <v>46.43417573763974</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.92056744007086</v>
+        <v>29.4934329715302</v>
       </c>
       <c r="R16" t="n">
-        <v>48.13321449724342</v>
+        <v>379.8284993887632</v>
       </c>
       <c r="S16" t="n">
-        <v>68.37308588157165</v>
+        <v>66.95043219042482</v>
       </c>
       <c r="T16" t="n">
-        <v>83.43941258244448</v>
+        <v>91.04226803737376</v>
       </c>
       <c r="U16" t="n">
-        <v>64.42749692088495</v>
+        <v>77.40279535749409</v>
       </c>
       <c r="V16" t="n">
-        <v>57.07867453874434</v>
+        <v>35.99625571831528</v>
       </c>
       <c r="W16" t="n">
-        <v>50.38441500301575</v>
+        <v>41.64833520928924</v>
       </c>
       <c r="X16" t="n">
-        <v>155.9040661730001</v>
+        <v>43.184251342076</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.89158142120683</v>
+        <v>52.92725556213881</v>
       </c>
       <c r="Z16" t="n">
-        <v>52.95937627216234</v>
+        <v>35.00566708523858</v>
       </c>
       <c r="AA16" t="n">
-        <v>25.78079228935566</v>
+        <v>37.36550009572056</v>
       </c>
       <c r="AB16" t="n">
-        <v>39.27063152356057</v>
+        <v>55.19937948560006</v>
       </c>
       <c r="AC16" t="n">
-        <v>101.2573203919723</v>
+        <v>33.42293595828082</v>
       </c>
       <c r="AD16" t="n">
-        <v>85.33412180131576</v>
+        <v>95.77907888714354</v>
       </c>
       <c r="AE16" t="n">
-        <v>59.05634619824045</v>
+        <v>83.56797611531891</v>
       </c>
       <c r="AF16" t="n">
-        <v>39.50246116204974</v>
+        <v>39.67934669791075</v>
       </c>
       <c r="AG16" t="n">
-        <v>24.28362493664913</v>
+        <v>105.3580689820446</v>
       </c>
       <c r="AH16" t="n">
-        <v>48.07432398983156</v>
+        <v>71.51148207444301</v>
       </c>
       <c r="AI16" t="n">
-        <v>42.43137914303009</v>
+        <v>28.68636678446583</v>
       </c>
       <c r="AJ16" t="n">
-        <v>61.92240032092694</v>
+        <v>190.6195854117127</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.63124832587902</v>
+        <v>63.95970110268718</v>
       </c>
       <c r="AL16" t="n">
-        <v>95.80374463710567</v>
+        <v>28.90627497823614</v>
       </c>
       <c r="AM16" t="n">
-        <v>43.76442142597544</v>
+        <v>14.04385027498794</v>
       </c>
       <c r="AN16" t="n">
-        <v>24.3736308947566</v>
+        <v>19.38638086700434</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.522378436514245</v>
+        <v>20.77072528539016</v>
       </c>
       <c r="AP16" t="n">
-        <v>14.95395653542757</v>
+        <v>18.89853011012985</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.385999095509032</v>
+        <v>29.2746213653458</v>
       </c>
       <c r="AR16" t="n">
-        <v>14.21243062643283</v>
+        <v>8.159925346010478</v>
       </c>
       <c r="AS16" t="n">
-        <v>18.2650536175752</v>
+        <v>3.768903105020603</v>
       </c>
       <c r="AT16" t="n">
-        <v>16.11074143171758</v>
+        <v>63.21507461099625</v>
       </c>
       <c r="AU16" t="n">
-        <v>12.63038173972766</v>
+        <v>22.25952001033588</v>
       </c>
       <c r="AV16" t="n">
-        <v>8.117813938393546</v>
+        <v>11.20001992195759</v>
       </c>
       <c r="AW16" t="n">
-        <v>10.83481846916807</v>
+        <v>11.45858616967589</v>
       </c>
       <c r="AX16" t="n">
-        <v>17.33597064537645</v>
+        <v>24.06560753720505</v>
       </c>
     </row>
     <row r="17">
@@ -2976,145 +2976,145 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>34.68385872911551</v>
       </c>
       <c r="E17" t="n">
-        <v>13.78561285067498</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.352801621932835</v>
+        <v>23.90377188437817</v>
       </c>
       <c r="G17" t="n">
-        <v>29.34734696291386</v>
+        <v>14.4967153691245</v>
       </c>
       <c r="H17" t="n">
-        <v>27.19881986754079</v>
+        <v>17.44127151804768</v>
       </c>
       <c r="I17" t="n">
-        <v>44.46795848024581</v>
+        <v>29.65559339275626</v>
       </c>
       <c r="J17" t="n">
-        <v>14.00872287361809</v>
+        <v>8.747565227714951</v>
       </c>
       <c r="K17" t="n">
-        <v>159.2318140690215</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>54.09610037644072</v>
+        <v>57.59145887384031</v>
       </c>
       <c r="M17" t="n">
-        <v>41.52543153305388</v>
+        <v>22.09875718496068</v>
       </c>
       <c r="N17" t="n">
-        <v>44.87699088134741</v>
+        <v>52.07570707280688</v>
       </c>
       <c r="O17" t="n">
-        <v>92.23813635248356</v>
+        <v>49.66471040926163</v>
       </c>
       <c r="P17" t="n">
-        <v>40.81274120005815</v>
+        <v>39.1121521929006</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.36804061695702</v>
+        <v>47.13131837137671</v>
       </c>
       <c r="R17" t="n">
-        <v>21.176583505969</v>
+        <v>60.76587559673264</v>
       </c>
       <c r="S17" t="n">
-        <v>2.447729480257546</v>
+        <v>76.23151460041009</v>
       </c>
       <c r="T17" t="n">
-        <v>38.36800091492251</v>
+        <v>39.49130193095284</v>
       </c>
       <c r="U17" t="n">
-        <v>45.42736305560034</v>
+        <v>41.91626470091933</v>
       </c>
       <c r="V17" t="n">
-        <v>66.31184755354022</v>
+        <v>41.0436870318018</v>
       </c>
       <c r="W17" t="n">
-        <v>81.50104538179173</v>
+        <v>32.00648414904863</v>
       </c>
       <c r="X17" t="n">
-        <v>31.92855955120473</v>
+        <v>63.55756728079227</v>
       </c>
       <c r="Y17" t="n">
-        <v>154.8082099969716</v>
+        <v>97.39139027974684</v>
       </c>
       <c r="Z17" t="n">
-        <v>52.3172157964675</v>
+        <v>144.7598883831282</v>
       </c>
       <c r="AA17" t="n">
-        <v>54.72364382466156</v>
+        <v>58.86108014538542</v>
       </c>
       <c r="AB17" t="n">
-        <v>24.25221239528033</v>
+        <v>29.19827157554108</v>
       </c>
       <c r="AC17" t="n">
-        <v>38.16277270716918</v>
+        <v>8.607654812338223</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.01228957906913</v>
+        <v>14.76861767526507</v>
       </c>
       <c r="AE17" t="n">
-        <v>94.29299005976178</v>
+        <v>6.29386506676961</v>
       </c>
       <c r="AF17" t="n">
-        <v>24.37064808286245</v>
+        <v>51.29416021869581</v>
       </c>
       <c r="AG17" t="n">
-        <v>23.40703132842225</v>
+        <v>38.42205843032147</v>
       </c>
       <c r="AH17" t="n">
-        <v>41.11665009287606</v>
+        <v>60.73787649679485</v>
       </c>
       <c r="AI17" t="n">
-        <v>15.86250508501346</v>
+        <v>23.819054715908</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.446627992891562</v>
+        <v>35.81889534969252</v>
       </c>
       <c r="AK17" t="n">
-        <v>31.12322216894406</v>
+        <v>24.34572931209689</v>
       </c>
       <c r="AL17" t="n">
-        <v>5.854314770793446</v>
+        <v>9.296927811600714</v>
       </c>
       <c r="AM17" t="n">
-        <v>18.73256940685974</v>
+        <v>3.071723837386349</v>
       </c>
       <c r="AN17" t="n">
-        <v>26.12732678350223</v>
+        <v>23.15292222196915</v>
       </c>
       <c r="AO17" t="n">
-        <v>23.87354988444885</v>
+        <v>31.56018068561105</v>
       </c>
       <c r="AP17" t="n">
-        <v>41.61773004827971</v>
+        <v>31.6378280108355</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23.86087129346243</v>
+        <v>36.06845509588523</v>
       </c>
       <c r="AR17" t="n">
-        <v>23.15155929565328</v>
+        <v>32.81033640734613</v>
       </c>
       <c r="AS17" t="n">
-        <v>25.21014595418751</v>
+        <v>35.00871498776444</v>
       </c>
       <c r="AT17" t="n">
-        <v>6.869637845857006</v>
+        <v>23.54102811129964</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.255394812337761</v>
+        <v>30.27419316679396</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.67114927342161</v>
+        <v>22.85269807008723</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>8.065218093091058</v>
       </c>
       <c r="AX17" t="n">
-        <v>37.74776201767084</v>
+        <v>3.363597832885651</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>5.499813769236908</v>
+        <v>2.229329808376629</v>
       </c>
       <c r="D18" t="n">
-        <v>2.796433523281085</v>
+        <v>160.0024790827707</v>
       </c>
       <c r="E18" t="n">
-        <v>14.82207792633466</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.027596945745607</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5.143428833331089</v>
+        <v>8.012156331359252</v>
       </c>
       <c r="I18" t="n">
-        <v>4.708816907529442</v>
+        <v>9.766104511544743</v>
       </c>
       <c r="J18" t="n">
-        <v>28.3496138106386</v>
+        <v>11.33066083341511</v>
       </c>
       <c r="K18" t="n">
-        <v>9.48426638213769</v>
+        <v>18.8365125607784</v>
       </c>
       <c r="L18" t="n">
-        <v>14.12809318103023</v>
+        <v>16.82770340548936</v>
       </c>
       <c r="M18" t="n">
-        <v>21.30228711506086</v>
+        <v>42.23708771869758</v>
       </c>
       <c r="N18" t="n">
-        <v>32.51818367483629</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>34.76888429116681</v>
+        <v>17.46680407273024</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6208934960126</v>
+        <v>10.30668440650355</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.23218511943956</v>
+        <v>19.3051717924539</v>
       </c>
       <c r="R18" t="n">
-        <v>15.64947019680318</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>18.09555424526246</v>
+        <v>13.83616165155111</v>
       </c>
       <c r="T18" t="n">
-        <v>10.51626424742992</v>
+        <v>20.85505877886268</v>
       </c>
       <c r="U18" t="n">
-        <v>20.14542541120172</v>
+        <v>19.85040388814055</v>
       </c>
       <c r="V18" t="n">
-        <v>128.2247503992634</v>
+        <v>40.2811961946712</v>
       </c>
       <c r="W18" t="n">
-        <v>18.31520000584243</v>
+        <v>10.89526717669768</v>
       </c>
       <c r="X18" t="n">
-        <v>5.383976444867502</v>
+        <v>95.73543705968012</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.88260652129834</v>
+        <v>6.425816721081389</v>
       </c>
       <c r="Z18" t="n">
-        <v>43.8324118687752</v>
+        <v>47.60991438179233</v>
       </c>
       <c r="AA18" t="n">
-        <v>14.17020360610259</v>
+        <v>27.84610963515211</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.30217804676824</v>
+        <v>2.89658314448244</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.120532490796197</v>
+        <v>13.53803629648161</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.07594988731816</v>
+        <v>17.98323518928605</v>
       </c>
       <c r="AE18" t="n">
-        <v>19.69385178439045</v>
+        <v>20.39326814651234</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.18613322539783</v>
+        <v>0.1334716632938613</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>15.30580200983268</v>
       </c>
       <c r="AH18" t="n">
-        <v>25.90269758922925</v>
+        <v>6.595999932939211</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.785273449193913</v>
+        <v>19.76047459549492</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.50792864194104</v>
+        <v>11.60351450739167</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.144690832841643</v>
+        <v>27.00169089087634</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.61269990926235</v>
+        <v>19.70301797318252</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.524952078202242</v>
+        <v>1.981705242926291</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.967338802864243</v>
+        <v>2.538619362932173</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.826700051615439</v>
+        <v>1.687796047812477</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.994783915019238</v>
+        <v>1.532516582526239</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.766653107281078</v>
+        <v>5.646670924979502</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.291798327087021</v>
+        <v>5.903485184974208</v>
       </c>
       <c r="AS18" t="n">
-        <v>5.709532724947943</v>
+        <v>2.210520415846999</v>
       </c>
       <c r="AT18" t="n">
-        <v>11.23889801120136</v>
+        <v>5.505723141651576</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.618714311494241</v>
+        <v>3.815876399932786</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.074964685209045</v>
+        <v>2.643347149753383</v>
       </c>
       <c r="AW18" t="n">
-        <v>22.58513328027175</v>
+        <v>9.444830368047263</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.8575511966555571</v>
+        <v>0.5020676430447258</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.6101466322882523</v>
       </c>
       <c r="D19" t="n">
-        <v>5.764843566406354</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>14.29345839395332</v>
+        <v>2.687797606342362</v>
       </c>
       <c r="F19" t="n">
-        <v>8.145927882488872</v>
+        <v>4.886343344418163</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30.76081211023115</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.044288343401738</v>
+        <v>32.39394681675243</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>9.015366612015402</v>
       </c>
       <c r="K19" t="n">
-        <v>29.13631835726509</v>
+        <v>19.69610129824052</v>
       </c>
       <c r="L19" t="n">
-        <v>12.74590712518913</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>26.74089219436585</v>
+        <v>95.62775341959596</v>
       </c>
       <c r="N19" t="n">
-        <v>105.3241077551059</v>
+        <v>11.5881102532304</v>
       </c>
       <c r="O19" t="n">
-        <v>55.42779518253023</v>
+        <v>27.32150586405439</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>14.49087848290042</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.30774921171967</v>
+        <v>11.27978113703925</v>
       </c>
       <c r="R19" t="n">
-        <v>129.7315833432012</v>
+        <v>38.5782926432015</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>63.45358596962756</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.68511344555384</v>
       </c>
       <c r="U19" t="n">
-        <v>10.07742546963211</v>
+        <v>8.71174908606503</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>9.317276655764099</v>
       </c>
       <c r="W19" t="n">
-        <v>11.38686591154728</v>
+        <v>27.82896006495464</v>
       </c>
       <c r="X19" t="n">
-        <v>29.43436624551389</v>
+        <v>62.62688151459886</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.575472310554986</v>
+        <v>25.11382385643729</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.86242774769243</v>
+        <v>16.30063257881951</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.431472254039839</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>21.83271885475493</v>
+        <v>8.008349122356213</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.24046622342273</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.24433968986595</v>
+        <v>1.009600749028312</v>
       </c>
       <c r="AE19" t="n">
-        <v>12.76768876193484</v>
+        <v>12.62540724889369</v>
       </c>
       <c r="AF19" t="n">
-        <v>5.681674135923394</v>
+        <v>10.17772509336771</v>
       </c>
       <c r="AG19" t="n">
-        <v>22.74326120355924</v>
+        <v>4.90295795226468</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.34869797829202</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.546444189620645</v>
+        <v>13.07710576848649</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.01736863721318</v>
+        <v>11.25414324774012</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.580181347116732</v>
+        <v>1.302123191554437</v>
       </c>
       <c r="AL19" t="n">
-        <v>6.966557958816182</v>
+        <v>5.210935204314463</v>
       </c>
       <c r="AM19" t="n">
-        <v>17.76121600371505</v>
+        <v>1.804318555613907</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.691595704279681</v>
+        <v>3.341126772000081</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>5.43141948605625</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.122449958103951</v>
+        <v>3.191530009760878</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.267798492634096</v>
+        <v>22.915764253135</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.166745188900043</v>
+        <v>8.410771079877561</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.146016746287344</v>
+        <v>8.757923866216858</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.574042296085699</v>
+        <v>4.331342348429004</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.992240497027811</v>
+        <v>19.61487064993359</v>
       </c>
       <c r="AV19" t="n">
-        <v>17.4606648531359</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>18.52450910830594</v>
+        <v>2.932590224908711</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>69.56460354931272</v>
       </c>
       <c r="D20" t="n">
-        <v>8.209920570093155</v>
+        <v>149.2148970078734</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>31.3270191587545</v>
       </c>
       <c r="F20" t="n">
-        <v>30.86230356164245</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.419263745049006</v>
       </c>
       <c r="H20" t="n">
-        <v>39.62254609677317</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.41939900020346</v>
+        <v>13.15212135164006</v>
       </c>
       <c r="J20" t="n">
-        <v>29.58846577659456</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>127.9270004982054</v>
+        <v>61.1401090805048</v>
       </c>
       <c r="L20" t="n">
-        <v>78.77596761986077</v>
+        <v>12.81075093126752</v>
       </c>
       <c r="M20" t="n">
-        <v>27.69521717638353</v>
+        <v>26.71115193060584</v>
       </c>
       <c r="N20" t="n">
-        <v>406.7742009637026</v>
+        <v>66.98870051371462</v>
       </c>
       <c r="O20" t="n">
-        <v>15.39365539514887</v>
+        <v>32.78812017945767</v>
       </c>
       <c r="P20" t="n">
-        <v>25.02893055528763</v>
+        <v>54.32507946724306</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.83130530974543</v>
+        <v>6.446476216450948</v>
       </c>
       <c r="R20" t="n">
-        <v>42.82313198411821</v>
+        <v>28.59028775654382</v>
       </c>
       <c r="S20" t="n">
-        <v>138.5233942619336</v>
+        <v>37.27157153072683</v>
       </c>
       <c r="T20" t="n">
-        <v>34.37677248792883</v>
+        <v>122.5179948988846</v>
       </c>
       <c r="U20" t="n">
-        <v>24.52035063205853</v>
+        <v>62.19233765107113</v>
       </c>
       <c r="V20" t="n">
-        <v>66.06126766391338</v>
+        <v>25.08956753308671</v>
       </c>
       <c r="W20" t="n">
-        <v>39.06385555300692</v>
+        <v>146.2457877859538</v>
       </c>
       <c r="X20" t="n">
-        <v>30.70406857804533</v>
+        <v>56.31923467605581</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.71554244059585</v>
+        <v>84.88391491354751</v>
       </c>
       <c r="Z20" t="n">
-        <v>61.41129755189182</v>
+        <v>75.67043761628618</v>
       </c>
       <c r="AA20" t="n">
-        <v>89.48373300397152</v>
+        <v>139.359079843954</v>
       </c>
       <c r="AB20" t="n">
-        <v>125.1687571087941</v>
+        <v>119.6136719164097</v>
       </c>
       <c r="AC20" t="n">
-        <v>94.89474069222476</v>
+        <v>21.6072292086071</v>
       </c>
       <c r="AD20" t="n">
-        <v>129.4660085766776</v>
+        <v>47.76639695296114</v>
       </c>
       <c r="AE20" t="n">
-        <v>95.0418392836238</v>
+        <v>127.8399251296138</v>
       </c>
       <c r="AF20" t="n">
-        <v>168.3619437353103</v>
+        <v>108.3902334229427</v>
       </c>
       <c r="AG20" t="n">
-        <v>147.2957170042277</v>
+        <v>57.60455842637894</v>
       </c>
       <c r="AH20" t="n">
-        <v>144.7310763579436</v>
+        <v>182.4391027571306</v>
       </c>
       <c r="AI20" t="n">
-        <v>35.15124505881836</v>
+        <v>106.8851088054499</v>
       </c>
       <c r="AJ20" t="n">
-        <v>63.9962266839142</v>
+        <v>111.1502091900795</v>
       </c>
       <c r="AK20" t="n">
-        <v>57.77558367074219</v>
+        <v>126.9844318831986</v>
       </c>
       <c r="AL20" t="n">
-        <v>52.50736515771413</v>
+        <v>98.92399131685107</v>
       </c>
       <c r="AM20" t="n">
-        <v>21.98079241429893</v>
+        <v>12.86722729739402</v>
       </c>
       <c r="AN20" t="n">
-        <v>64.83456785124768</v>
+        <v>30.84875984706409</v>
       </c>
       <c r="AO20" t="n">
-        <v>49.29273862077937</v>
+        <v>32.50982802170878</v>
       </c>
       <c r="AP20" t="n">
-        <v>32.14174588101967</v>
+        <v>21.25163641682048</v>
       </c>
       <c r="AQ20" t="n">
-        <v>31.55175006618624</v>
+        <v>44.71430900709084</v>
       </c>
       <c r="AR20" t="n">
-        <v>27.59473440554818</v>
+        <v>14.1030023061277</v>
       </c>
       <c r="AS20" t="n">
-        <v>20.25396896367247</v>
+        <v>99.94112607773029</v>
       </c>
       <c r="AT20" t="n">
-        <v>13.41137554426931</v>
+        <v>27.49366697123367</v>
       </c>
       <c r="AU20" t="n">
-        <v>21.42526524792311</v>
+        <v>30.89497774142405</v>
       </c>
       <c r="AV20" t="n">
-        <v>14.90731319656645</v>
+        <v>82.90309945750344</v>
       </c>
       <c r="AW20" t="n">
-        <v>15.35436839199659</v>
+        <v>27.7779653109347</v>
       </c>
       <c r="AX20" t="n">
-        <v>24.56748618950034</v>
+        <v>24.16654264721214</v>
       </c>
     </row>
     <row r="21">
@@ -3584,145 +3584,145 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1795361009605975</v>
+        <v>3.823451581248876</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.24388804933812</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.374656222828444</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3.478027528268267</v>
+        <v>1.014991605515484</v>
       </c>
       <c r="I21" t="n">
-        <v>5.253500094818668</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.036611026360517</v>
+        <v>5.825471393103763</v>
       </c>
       <c r="K21" t="n">
-        <v>2.310319256357444</v>
+        <v>3.902495730392113</v>
       </c>
       <c r="L21" t="n">
-        <v>2.247403539634044</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.780941937039186</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9.289014428585322</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.988531719484211</v>
+        <v>7.659919878981344</v>
       </c>
       <c r="P21" t="n">
-        <v>0.896896938327236</v>
+        <v>6.470204489134177</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.662228447151254</v>
+        <v>1.446780598072889</v>
       </c>
       <c r="R21" t="n">
-        <v>2.490450902710991</v>
+        <v>3.474272439534825</v>
       </c>
       <c r="S21" t="n">
-        <v>10.91319429028431</v>
+        <v>11.4772576525443</v>
       </c>
       <c r="T21" t="n">
-        <v>5.050564020108219</v>
+        <v>5.052862148290742</v>
       </c>
       <c r="U21" t="n">
-        <v>6.466872531786893</v>
+        <v>10.98671177612054</v>
       </c>
       <c r="V21" t="n">
-        <v>12.17235157370838</v>
+        <v>0.4297681647877263</v>
       </c>
       <c r="W21" t="n">
-        <v>2.455262489403043</v>
+        <v>6.674061723370978</v>
       </c>
       <c r="X21" t="n">
-        <v>3.770105004033465</v>
+        <v>7.362256733350915</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.907737537451942</v>
+        <v>9.645261545869046</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.520798515463991</v>
+        <v>5.689871936594548</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.462427337972573</v>
+        <v>4.944067938257477</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.260604729537064</v>
+        <v>1.898911876462609</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.404944699487022</v>
+        <v>1.597447937068956</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.312563450078881</v>
+        <v>6.88505548001002</v>
       </c>
       <c r="AE21" t="n">
-        <v>10.38785428461253</v>
+        <v>3.293929029638078</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.236086033971123</v>
+        <v>8.759412698168035</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.896189811602126</v>
+        <v>3.935588206068116</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.793358617450219</v>
+        <v>2.682660483274018</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.379584238558198</v>
+        <v>7.310680250761909</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.688188146476485</v>
+        <v>1.695002458380791</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.474954741048519</v>
+        <v>7.91680339269337</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.71401609412105</v>
+        <v>5.134622314258295</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.411200217792208</v>
+        <v>9.642030542007628</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.239975617088005</v>
+        <v>3.985187722310449</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.23187120672162</v>
+        <v>8.060563988649532</v>
       </c>
       <c r="AP21" t="n">
-        <v>6.142252697428331</v>
+        <v>3.222655132531684</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7.333850194026028</v>
+        <v>2.700823699099757</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.2945596602787534</v>
+        <v>9.534492550373022</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.277432835924288</v>
+        <v>3.671662761449478</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.781701317839698</v>
+        <v>3.103128378255784</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>0.6064955047904708</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.993322564963307</v>
+        <v>2.567492229876132</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.29859575980268</v>
+        <v>3.378418407912683</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.403894096594094</v>
+        <v>3.058294250741332</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10.5679094265146</v>
+        <v>24.30342315787357</v>
       </c>
       <c r="D22" t="n">
-        <v>8.931678741487429</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20.75336410793678</v>
+        <v>78.20225716933415</v>
       </c>
       <c r="F22" t="n">
-        <v>15.8894877680456</v>
+        <v>106.0439441288419</v>
       </c>
       <c r="G22" t="n">
-        <v>105.7113345933523</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.14813866680699</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>28.05535478989133</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.70219017832052</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>55.37317222265219</v>
+        <v>129.250839444139</v>
       </c>
       <c r="L22" t="n">
-        <v>80.50843304481018</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>123.2869812816014</v>
+        <v>82.11242831215461</v>
       </c>
       <c r="N22" t="n">
-        <v>85.72994441731886</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>74.61915626843188</v>
+        <v>65.30156326751728</v>
       </c>
       <c r="P22" t="n">
-        <v>82.03950943484762</v>
+        <v>67.00751122589163</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.21133308973014</v>
+        <v>66.63074136305116</v>
       </c>
       <c r="R22" t="n">
-        <v>30.14576249233903</v>
+        <v>123.6651685397603</v>
       </c>
       <c r="S22" t="n">
-        <v>69.77276090390336</v>
+        <v>82.13552757526315</v>
       </c>
       <c r="T22" t="n">
-        <v>57.07695047003516</v>
+        <v>54.18316429515772</v>
       </c>
       <c r="U22" t="n">
-        <v>23.03849920395178</v>
+        <v>69.04139018040811</v>
       </c>
       <c r="V22" t="n">
-        <v>52.0399232509476</v>
+        <v>39.6206208590961</v>
       </c>
       <c r="W22" t="n">
-        <v>79.17174714994525</v>
+        <v>55.72306729064184</v>
       </c>
       <c r="X22" t="n">
-        <v>62.33269748139539</v>
+        <v>29.03056123788143</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.45094253072029</v>
+        <v>97.52352563898934</v>
       </c>
       <c r="Z22" t="n">
-        <v>38.12506981221717</v>
+        <v>23.00358165064454</v>
       </c>
       <c r="AA22" t="n">
-        <v>46.77500067939128</v>
+        <v>62.83620929755696</v>
       </c>
       <c r="AB22" t="n">
-        <v>107.9064532249498</v>
+        <v>89.10660535460823</v>
       </c>
       <c r="AC22" t="n">
-        <v>59.61486062941157</v>
+        <v>30.24963270905901</v>
       </c>
       <c r="AD22" t="n">
-        <v>88.23119025905328</v>
+        <v>33.19331089931482</v>
       </c>
       <c r="AE22" t="n">
-        <v>40.07119043283364</v>
+        <v>70.23719986408102</v>
       </c>
       <c r="AF22" t="n">
-        <v>46.40538965190382</v>
+        <v>102.5086854910253</v>
       </c>
       <c r="AG22" t="n">
-        <v>46.95457706497689</v>
+        <v>81.19876986930841</v>
       </c>
       <c r="AH22" t="n">
-        <v>56.75413190998995</v>
+        <v>93.58188868506366</v>
       </c>
       <c r="AI22" t="n">
-        <v>122.5592141094873</v>
+        <v>94.57725640116372</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18.60276261215896</v>
+        <v>37.17479302199398</v>
       </c>
       <c r="AK22" t="n">
-        <v>62.03816885576228</v>
+        <v>87.90510419920874</v>
       </c>
       <c r="AL22" t="n">
-        <v>30.66594078583346</v>
+        <v>40.76882828736827</v>
       </c>
       <c r="AM22" t="n">
-        <v>22.3339330617277</v>
+        <v>19.53395378771095</v>
       </c>
       <c r="AN22" t="n">
-        <v>23.69306808151595</v>
+        <v>10.19669550391332</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.81964542391831</v>
+        <v>30.84785393071399</v>
       </c>
       <c r="AP22" t="n">
-        <v>19.79758026412802</v>
+        <v>13.76828649934244</v>
       </c>
       <c r="AQ22" t="n">
-        <v>32.26262081563198</v>
+        <v>14.78902453557129</v>
       </c>
       <c r="AR22" t="n">
-        <v>22.0610356425121</v>
+        <v>8.783380556366563</v>
       </c>
       <c r="AS22" t="n">
-        <v>26.03611219631853</v>
+        <v>16.0807371904307</v>
       </c>
       <c r="AT22" t="n">
-        <v>14.70890993541725</v>
+        <v>7.08170738907224</v>
       </c>
       <c r="AU22" t="n">
-        <v>16.57416378266216</v>
+        <v>6.970835463093573</v>
       </c>
       <c r="AV22" t="n">
-        <v>5.037210585488244</v>
+        <v>12.25739701177168</v>
       </c>
       <c r="AW22" t="n">
-        <v>11.93811509314927</v>
+        <v>14.71337629926865</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.04813709498624</v>
+        <v>15.72143659092581</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>92.37325126422972</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>56.9541341961633</v>
       </c>
       <c r="E23" t="n">
-        <v>33.97588625254803</v>
+        <v>35.54951793154115</v>
       </c>
       <c r="F23" t="n">
-        <v>12.47403364555001</v>
+        <v>12.48786009854036</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>21.28271803015045</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>34.77052073466484</v>
       </c>
       <c r="I23" t="n">
-        <v>118.3136174254005</v>
+        <v>52.84324293022593</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>38.67274558041193</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>217.8901798911473</v>
+        <v>83.94057411686899</v>
       </c>
       <c r="M23" t="n">
-        <v>91.01167609826291</v>
+        <v>20.63850369785796</v>
       </c>
       <c r="N23" t="n">
-        <v>56.90658648864343</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>141.1352749210033</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>146.7714886723646</v>
+        <v>66.51080268944821</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17802805134956</v>
+        <v>320.4494341567288</v>
       </c>
       <c r="R23" t="n">
-        <v>116.5627132682716</v>
+        <v>49.22416742594162</v>
       </c>
       <c r="S23" t="n">
-        <v>98.0052754669139</v>
+        <v>31.19052877640564</v>
       </c>
       <c r="T23" t="n">
-        <v>24.88761379779908</v>
+        <v>12.42034654953118</v>
       </c>
       <c r="U23" t="n">
-        <v>38.3702162948532</v>
+        <v>77.32201250608264</v>
       </c>
       <c r="V23" t="n">
-        <v>71.6824033273937</v>
+        <v>117.0982044229879</v>
       </c>
       <c r="W23" t="n">
-        <v>15.70511031174664</v>
+        <v>28.09840735226751</v>
       </c>
       <c r="X23" t="n">
-        <v>38.53090527142152</v>
+        <v>45.0872795746165</v>
       </c>
       <c r="Y23" t="n">
-        <v>75.31773663233318</v>
+        <v>30.12389039876801</v>
       </c>
       <c r="Z23" t="n">
-        <v>48.98884191908449</v>
+        <v>48.38438845078879</v>
       </c>
       <c r="AA23" t="n">
-        <v>45.92338412290125</v>
+        <v>35.07894266284504</v>
       </c>
       <c r="AB23" t="n">
-        <v>31.54428528631924</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.09001903820471</v>
+        <v>100.2127710268953</v>
       </c>
       <c r="AD23" t="n">
-        <v>41.80108741503135</v>
+        <v>26.77308367600469</v>
       </c>
       <c r="AE23" t="n">
-        <v>135.5965220141215</v>
+        <v>7.392599095784416</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.6148531894592058</v>
       </c>
       <c r="AG23" t="n">
-        <v>89.13554367218271</v>
+        <v>68.42557440855686</v>
       </c>
       <c r="AH23" t="n">
-        <v>35.79185275617738</v>
+        <v>16.15647051095187</v>
       </c>
       <c r="AI23" t="n">
-        <v>19.56106543132404</v>
+        <v>62.16420895557011</v>
       </c>
       <c r="AJ23" t="n">
-        <v>31.58223120682843</v>
+        <v>16.03565234203691</v>
       </c>
       <c r="AK23" t="n">
-        <v>9.40481865319979</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>14.67205686976356</v>
+        <v>23.47297411541153</v>
       </c>
       <c r="AM23" t="n">
-        <v>22.70347319849547</v>
+        <v>29.39195304738546</v>
       </c>
       <c r="AN23" t="n">
-        <v>15.42815283420691</v>
+        <v>5.199845433018095</v>
       </c>
       <c r="AO23" t="n">
-        <v>12.46569146057432</v>
+        <v>15.15422060643803</v>
       </c>
       <c r="AP23" t="n">
-        <v>29.17707293089109</v>
+        <v>15.15587684095546</v>
       </c>
       <c r="AQ23" t="n">
-        <v>44.88673269563077</v>
+        <v>16.4979214133057</v>
       </c>
       <c r="AR23" t="n">
-        <v>13.18133479630034</v>
+        <v>22.31584455744895</v>
       </c>
       <c r="AS23" t="n">
-        <v>6.68496224561375</v>
+        <v>8.676248882615498</v>
       </c>
       <c r="AT23" t="n">
-        <v>24.51997151578531</v>
+        <v>26.8796580948038</v>
       </c>
       <c r="AU23" t="n">
-        <v>30.61200805833413</v>
+        <v>39.08525393065838</v>
       </c>
       <c r="AV23" t="n">
-        <v>37.26006643467005</v>
+        <v>22.5233528339633</v>
       </c>
       <c r="AW23" t="n">
-        <v>22.28725099615593</v>
+        <v>21.75397411425005</v>
       </c>
       <c r="AX23" t="n">
-        <v>18.21608769963547</v>
+        <v>29.91835666039231</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>2.007127759510049</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.449352809669889</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19.80086995654259</v>
+        <v>13.6254428529228</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.628552116842537</v>
+        <v>3.756906462924176</v>
       </c>
       <c r="H24" t="n">
-        <v>4.84938251512949</v>
+        <v>34.37381954781806</v>
       </c>
       <c r="I24" t="n">
-        <v>17.8825339232592</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.60361313280167</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25.86667989725289</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73653297671686</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>19.88488685646415</v>
+        <v>6.208454718663429</v>
       </c>
       <c r="N24" t="n">
-        <v>0.340465992357232</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>35.87640650489831</v>
+        <v>11.92238104058782</v>
       </c>
       <c r="P24" t="n">
-        <v>37.84691035697075</v>
+        <v>11.35225677056133</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.00195883556199</v>
+        <v>17.02117268239628</v>
       </c>
       <c r="R24" t="n">
-        <v>19.66387736576176</v>
+        <v>23.98515333898022</v>
       </c>
       <c r="S24" t="n">
-        <v>39.9093657682408</v>
+        <v>25.59861161292585</v>
       </c>
       <c r="T24" t="n">
-        <v>9.100934919174801</v>
+        <v>37.4922699561986</v>
       </c>
       <c r="U24" t="n">
-        <v>11.9095242465315</v>
+        <v>10.98444337910986</v>
       </c>
       <c r="V24" t="n">
-        <v>5.21814911862297</v>
+        <v>18.40198218309011</v>
       </c>
       <c r="W24" t="n">
-        <v>18.30994717418561</v>
+        <v>55.12331060143126</v>
       </c>
       <c r="X24" t="n">
-        <v>15.63599475068275</v>
+        <v>28.17322466712042</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.76192073117113</v>
+        <v>25.22608920104706</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.555136211552018</v>
+        <v>147.0433029402936</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.4135103352271</v>
+        <v>26.1737221850451</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.77193796255308</v>
+        <v>10.91980909070135</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.05401843714506</v>
+        <v>12.24908466344116</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.73191228909121</v>
+        <v>10.94828428593907</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.541193748100423</v>
+        <v>15.88284580976262</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.9477010860027</v>
+        <v>24.92507197770263</v>
       </c>
       <c r="AG24" t="n">
-        <v>22.65839820647657</v>
+        <v>0.7022617934637818</v>
       </c>
       <c r="AH24" t="n">
-        <v>20.56879599666853</v>
+        <v>7.308438935779177</v>
       </c>
       <c r="AI24" t="n">
-        <v>21.04667612320785</v>
+        <v>9.993605087737128</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.86707064689603</v>
+        <v>6.232962333256051</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.24479614368757</v>
+        <v>6.506594045374214</v>
       </c>
       <c r="AL24" t="n">
-        <v>16.68739332311016</v>
+        <v>20.41737035668402</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.879673539844569</v>
+        <v>3.570029669575467</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.793927622627363</v>
+        <v>0.1808581444840389</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.186243415056741</v>
+        <v>3.164660606082504</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.857239561728874</v>
+        <v>2.050326561886007</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.9026204517546512</v>
+        <v>5.093615346038473</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.589993604938815</v>
+        <v>2.033743709728765</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.569800680629003</v>
+        <v>4.785410927961838</v>
       </c>
       <c r="AT24" t="n">
-        <v>11.73736680151357</v>
+        <v>0.9738708530896459</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.017515048732438</v>
+        <v>0.6157796130870408</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.483067621642721</v>
+        <v>0.7771997142361619</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.666745880443377</v>
+        <v>7.913330210406136</v>
       </c>
     </row>
     <row r="25">
@@ -4189,13 +4189,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19.38012280860874</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.967220212461816</v>
       </c>
       <c r="E25" t="n">
-        <v>28.44836338783096</v>
+        <v>46.61297893222563</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4204,133 +4204,133 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>28.84318618348343</v>
+        <v>6.944861221658537</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.9338564965119724</v>
       </c>
       <c r="J25" t="n">
-        <v>24.18804215504095</v>
+        <v>9.902739902070426</v>
       </c>
       <c r="K25" t="n">
-        <v>79.37367469241862</v>
+        <v>14.26974350369078</v>
       </c>
       <c r="L25" t="n">
-        <v>30.26423937131746</v>
+        <v>11.25551630625393</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.321638025550536</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>31.13893060948489</v>
+        <v>25.46365460104775</v>
       </c>
       <c r="P25" t="n">
-        <v>56.51711586093958</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.36040033578484</v>
+        <v>76.90567485988859</v>
       </c>
       <c r="R25" t="n">
-        <v>84.31312465961503</v>
+        <v>47.43638446418512</v>
       </c>
       <c r="S25" t="n">
-        <v>46.99276597697566</v>
+        <v>13.23512518695778</v>
       </c>
       <c r="T25" t="n">
-        <v>32.83358570362799</v>
+        <v>28.52529710021989</v>
       </c>
       <c r="U25" t="n">
-        <v>8.646615563685881</v>
+        <v>6.561052770144259</v>
       </c>
       <c r="V25" t="n">
-        <v>41.18265981493786</v>
+        <v>1.030252609401813</v>
       </c>
       <c r="W25" t="n">
-        <v>30.91388959290534</v>
+        <v>36.6887443311275</v>
       </c>
       <c r="X25" t="n">
-        <v>10.71128838718024</v>
+        <v>88.19683282429324</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.08384032506946</v>
+        <v>19.58038941811104</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.754934473161549</v>
+        <v>10.92711050231614</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.10852985312256</v>
+        <v>3.257100002941271</v>
       </c>
       <c r="AB25" t="n">
-        <v>67.99796889797251</v>
+        <v>60.96240106577268</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.83289395863644</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.49109394837575</v>
+        <v>7.91222566517427</v>
       </c>
       <c r="AE25" t="n">
-        <v>24.22741638318243</v>
+        <v>81.18817130269457</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.436222379193087</v>
+        <v>20.34814705506538</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.42611448805191</v>
+        <v>5.746364860984002</v>
       </c>
       <c r="AH25" t="n">
-        <v>7.953411502223996</v>
+        <v>12.95846199500545</v>
       </c>
       <c r="AI25" t="n">
-        <v>7.820373726004557</v>
+        <v>74.10757213012931</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.05345072783104</v>
+        <v>11.70416926624803</v>
       </c>
       <c r="AK25" t="n">
-        <v>33.73631789833966</v>
+        <v>15.34505188406139</v>
       </c>
       <c r="AL25" t="n">
-        <v>14.31596108067675</v>
+        <v>14.56938836999476</v>
       </c>
       <c r="AM25" t="n">
-        <v>9.087474708098082</v>
+        <v>12.56880697116355</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>6.157192678049108</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.713770212343393</v>
+        <v>14.89554818840691</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>5.387174974879985</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12.66859452382059</v>
+        <v>3.840449709936663</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.208361853458298</v>
+        <v>0.7580426305935563</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.904336466885001</v>
+        <v>5.438183354184652</v>
       </c>
       <c r="AT25" t="n">
-        <v>5.42530723528176</v>
+        <v>28.75178380834699</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.1782138741112476</v>
+        <v>17.47364153599084</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.75379728122115</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.110936237491078</v>
+        <v>13.37848844346708</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>20.99633523219618</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>59.06278250697026</v>
       </c>
       <c r="E26" t="n">
-        <v>18.53055961674824</v>
+        <v>108.5185767152962</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>37.83937847134615</v>
       </c>
       <c r="G26" t="n">
-        <v>59.35136527000826</v>
+        <v>11.32375234557273</v>
       </c>
       <c r="H26" t="n">
-        <v>55.27546801659352</v>
+        <v>160.8095439210179</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.26982787631595</v>
       </c>
       <c r="J26" t="n">
-        <v>36.82801095047455</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>92.49383984919542</v>
+        <v>8.410557267243815</v>
       </c>
       <c r="L26" t="n">
-        <v>65.16406575407071</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>328.2789605828791</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>114.9635545471189</v>
+        <v>51.08081275468517</v>
       </c>
       <c r="O26" t="n">
-        <v>91.73072073040449</v>
+        <v>98.00850350595617</v>
       </c>
       <c r="P26" t="n">
-        <v>86.9692272020788</v>
+        <v>183.263943027177</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>104.9261247224617</v>
       </c>
       <c r="R26" t="n">
-        <v>23.98268992929476</v>
+        <v>92.59333713990274</v>
       </c>
       <c r="S26" t="n">
-        <v>123.3348737900275</v>
+        <v>47.3189635602117</v>
       </c>
       <c r="T26" t="n">
-        <v>47.77331414183125</v>
+        <v>43.51115702091104</v>
       </c>
       <c r="U26" t="n">
-        <v>61.91954569241231</v>
+        <v>12.33794048567201</v>
       </c>
       <c r="V26" t="n">
-        <v>217.9845215841094</v>
+        <v>11.97025916729559</v>
       </c>
       <c r="W26" t="n">
-        <v>15.35333230237554</v>
+        <v>67.60264963647798</v>
       </c>
       <c r="X26" t="n">
-        <v>78.36434752349157</v>
+        <v>52.92865101117229</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.93973546115465</v>
+        <v>34.46328248466358</v>
       </c>
       <c r="Z26" t="n">
-        <v>61.00372041810238</v>
+        <v>33.91454032524714</v>
       </c>
       <c r="AA26" t="n">
-        <v>67.2454740380914</v>
+        <v>92.52929997752105</v>
       </c>
       <c r="AB26" t="n">
-        <v>63.15845614158606</v>
+        <v>111.1096889829134</v>
       </c>
       <c r="AC26" t="n">
-        <v>126.6283263825715</v>
+        <v>97.27388975138805</v>
       </c>
       <c r="AD26" t="n">
-        <v>178.9742852772676</v>
+        <v>23.94231482449666</v>
       </c>
       <c r="AE26" t="n">
-        <v>160.731609757734</v>
+        <v>90.27846982869411</v>
       </c>
       <c r="AF26" t="n">
-        <v>181.0525816586832</v>
+        <v>35.31029253149089</v>
       </c>
       <c r="AG26" t="n">
-        <v>169.3972327166656</v>
+        <v>78.88104724028919</v>
       </c>
       <c r="AH26" t="n">
-        <v>200.355022907035</v>
+        <v>124.084840032468</v>
       </c>
       <c r="AI26" t="n">
-        <v>142.5856743219435</v>
+        <v>110.1567214394599</v>
       </c>
       <c r="AJ26" t="n">
-        <v>163.2208221180859</v>
+        <v>70.6015904853824</v>
       </c>
       <c r="AK26" t="n">
-        <v>34.65535114841756</v>
+        <v>140.8042787652039</v>
       </c>
       <c r="AL26" t="n">
-        <v>67.08519982412065</v>
+        <v>97.02424404356287</v>
       </c>
       <c r="AM26" t="n">
-        <v>53.07038559630981</v>
+        <v>23.01767187133824</v>
       </c>
       <c r="AN26" t="n">
-        <v>25.59984897076012</v>
+        <v>21.71864666361329</v>
       </c>
       <c r="AO26" t="n">
-        <v>21.58054233249715</v>
+        <v>19.76935074942134</v>
       </c>
       <c r="AP26" t="n">
-        <v>28.97282234472883</v>
+        <v>21.71189263897804</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10.97372775879182</v>
+        <v>27.40653427101487</v>
       </c>
       <c r="AR26" t="n">
-        <v>16.19203647564678</v>
+        <v>28.63923421494639</v>
       </c>
       <c r="AS26" t="n">
-        <v>29.33980638105578</v>
+        <v>29.49125845139484</v>
       </c>
       <c r="AT26" t="n">
-        <v>15.24975506695033</v>
+        <v>29.64918575962816</v>
       </c>
       <c r="AU26" t="n">
-        <v>10.75224950983642</v>
+        <v>21.82257746544627</v>
       </c>
       <c r="AV26" t="n">
-        <v>16.02373485921913</v>
+        <v>27.10678320680795</v>
       </c>
       <c r="AW26" t="n">
-        <v>28.28315122806989</v>
+        <v>27.34470724539619</v>
       </c>
       <c r="AX26" t="n">
-        <v>25.62444264495129</v>
+        <v>31.93119012181407</v>
       </c>
     </row>
     <row r="27">
@@ -4493,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.44604214334955</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4502,139 +4502,139 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.712989840654565</v>
+        <v>4.733254606555023</v>
       </c>
       <c r="G27" t="n">
-        <v>9.044879042570063</v>
+        <v>2.200051353989055</v>
       </c>
       <c r="H27" t="n">
-        <v>3.840651346104365</v>
+        <v>2.101788017873119</v>
       </c>
       <c r="I27" t="n">
-        <v>3.613859688655188</v>
+        <v>5.953751702394381</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04331834536698265</v>
+        <v>6.403432021116399</v>
       </c>
       <c r="K27" t="n">
-        <v>2.940831507373293</v>
+        <v>5.017225689279242</v>
       </c>
       <c r="L27" t="n">
-        <v>3.888413365820094</v>
+        <v>2.359449195321488</v>
       </c>
       <c r="M27" t="n">
-        <v>4.883951045920536</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.862763061280332</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3.741910482633056</v>
+        <v>2.996315792514609</v>
       </c>
       <c r="P27" t="n">
-        <v>3.00326652577911</v>
+        <v>6.54003108841786</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.743897725998582</v>
+        <v>7.39968029535312</v>
       </c>
       <c r="R27" t="n">
-        <v>8.604284761795791</v>
+        <v>6.746936861460066</v>
       </c>
       <c r="S27" t="n">
-        <v>11.28518973389763</v>
+        <v>3.725073622844962</v>
       </c>
       <c r="T27" t="n">
-        <v>3.692948266090426</v>
+        <v>4.414346388541287</v>
       </c>
       <c r="U27" t="n">
-        <v>5.544691039491488</v>
+        <v>0.4907694758826953</v>
       </c>
       <c r="V27" t="n">
-        <v>3.038142591792247</v>
+        <v>5.473229427797662</v>
       </c>
       <c r="W27" t="n">
-        <v>3.490496933301312</v>
+        <v>5.057679921252159</v>
       </c>
       <c r="X27" t="n">
-        <v>4.298627600180709</v>
+        <v>3.307209473956594</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.588580965958176</v>
+        <v>10.73262994628594</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.285835011337786</v>
+        <v>2.675082207239687</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.911244277497165</v>
+        <v>5.784983827912268</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.132097187242386</v>
+        <v>3.376932067824061</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.326024121246027</v>
+        <v>9.760013642201322</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.951804036461758</v>
+        <v>3.786541767796993</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.517957330365611</v>
+        <v>3.174800608149315</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.633474137809782</v>
+        <v>3.829477733223193</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.111177801892916</v>
+        <v>2.345656531571516</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.726886258635453</v>
+        <v>5.494796523528508</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.425241933825734</v>
+        <v>7.980613251706881</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11.86058790760731</v>
+        <v>3.421755977042887</v>
       </c>
       <c r="AK27" t="n">
-        <v>8.550972662842629</v>
+        <v>3.841223536896663</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.653003103083476</v>
+        <v>7.502073819184599</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.799917090652263</v>
+        <v>5.965024740178649</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.267914222105621</v>
+        <v>3.74281113541577</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.952145988796167</v>
+        <v>5.999585092664018</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.294438989430886</v>
+        <v>5.616530007551616</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.679738096043738</v>
+        <v>8.10575360708367</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.166540144471415</v>
+        <v>1.673766779407471</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.32519242116072</v>
+        <v>7.769347179171225</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.795159296615615</v>
+        <v>2.898695395163646</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.576441499515095</v>
+        <v>5.87502272183345</v>
       </c>
       <c r="AV27" t="n">
-        <v>5.844292305433495</v>
+        <v>3.535567586425525</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.599034837301292</v>
+        <v>2.855390884181003</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.492200478421633</v>
+        <v>4.499764575012289</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.87145180009001</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>163.820225474748</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39224141105624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.9567135572112</v>
+        <v>52.13511801368141</v>
       </c>
       <c r="I28" t="n">
-        <v>91.52671282673388</v>
+        <v>147.8465166967997</v>
       </c>
       <c r="J28" t="n">
-        <v>492.6819719084018</v>
+        <v>4.940043539459932</v>
       </c>
       <c r="K28" t="n">
-        <v>33.38493235527289</v>
+        <v>157.0473169296959</v>
       </c>
       <c r="L28" t="n">
-        <v>67.66871727995695</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.643117801299995</v>
       </c>
       <c r="N28" t="n">
-        <v>28.76607684894756</v>
+        <v>7.343050779588625</v>
       </c>
       <c r="O28" t="n">
-        <v>90.69017780490327</v>
+        <v>43.11094015890296</v>
       </c>
       <c r="P28" t="n">
-        <v>70.84709203081495</v>
+        <v>126.2148578225397</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.45490406409262</v>
+        <v>61.11330300936469</v>
       </c>
       <c r="R28" t="n">
-        <v>87.83771549696441</v>
+        <v>123.5792251689239</v>
       </c>
       <c r="S28" t="n">
-        <v>62.68745873834015</v>
+        <v>149.1368757280457</v>
       </c>
       <c r="T28" t="n">
-        <v>103.5061135768363</v>
+        <v>55.77181235641929</v>
       </c>
       <c r="U28" t="n">
-        <v>47.40977129532379</v>
+        <v>10.27271588177683</v>
       </c>
       <c r="V28" t="n">
-        <v>13.32869667718666</v>
+        <v>58.28580498735961</v>
       </c>
       <c r="W28" t="n">
-        <v>76.42613769242575</v>
+        <v>139.1623677635731</v>
       </c>
       <c r="X28" t="n">
-        <v>76.33631204595598</v>
+        <v>146.8154182585756</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.1040848383645</v>
+        <v>38.50151957167942</v>
       </c>
       <c r="Z28" t="n">
-        <v>50.62272289181729</v>
+        <v>142.0243515870112</v>
       </c>
       <c r="AA28" t="n">
-        <v>43.41725083663782</v>
+        <v>104.9050670790475</v>
       </c>
       <c r="AB28" t="n">
-        <v>57.90744534519987</v>
+        <v>47.54231909654903</v>
       </c>
       <c r="AC28" t="n">
-        <v>83.00040405832758</v>
+        <v>66.10380479673321</v>
       </c>
       <c r="AD28" t="n">
-        <v>98.39797532511091</v>
+        <v>45.96876781291284</v>
       </c>
       <c r="AE28" t="n">
-        <v>57.72260400171309</v>
+        <v>89.60884511524178</v>
       </c>
       <c r="AF28" t="n">
-        <v>21.03494806356423</v>
+        <v>38.76688455191402</v>
       </c>
       <c r="AG28" t="n">
-        <v>51.99729973273878</v>
+        <v>47.00532040056044</v>
       </c>
       <c r="AH28" t="n">
-        <v>85.36345392905851</v>
+        <v>38.60788236615407</v>
       </c>
       <c r="AI28" t="n">
-        <v>34.50729294820653</v>
+        <v>92.04436211954233</v>
       </c>
       <c r="AJ28" t="n">
-        <v>50.43644843491909</v>
+        <v>50.44488752016775</v>
       </c>
       <c r="AK28" t="n">
-        <v>31.98866548411299</v>
+        <v>21.68421702313756</v>
       </c>
       <c r="AL28" t="n">
-        <v>25.79955065615115</v>
+        <v>97.88742264941592</v>
       </c>
       <c r="AM28" t="n">
-        <v>38.43057323059036</v>
+        <v>24.82333856581158</v>
       </c>
       <c r="AN28" t="n">
-        <v>66.41049302972597</v>
+        <v>10.75453816486291</v>
       </c>
       <c r="AO28" t="n">
-        <v>17.44508178845372</v>
+        <v>11.66502871218917</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.980387436963201</v>
+        <v>18.87894764742141</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21.62843486706734</v>
+        <v>24.66771835158463</v>
       </c>
       <c r="AR28" t="n">
-        <v>16.42802668515753</v>
+        <v>15.15957296070447</v>
       </c>
       <c r="AS28" t="n">
-        <v>31.22452291139528</v>
+        <v>14.14354313527066</v>
       </c>
       <c r="AT28" t="n">
-        <v>12.07571809423342</v>
+        <v>14.93671999978667</v>
       </c>
       <c r="AU28" t="n">
-        <v>15.08866816284286</v>
+        <v>24.15185175667363</v>
       </c>
       <c r="AV28" t="n">
-        <v>32.60329378049685</v>
+        <v>18.57882343351378</v>
       </c>
       <c r="AW28" t="n">
-        <v>22.44934437177041</v>
+        <v>5.118123177351692</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.16181147431344</v>
+        <v>9.320425665150223</v>
       </c>
     </row>
     <row r="29">
@@ -4797,19 +4797,19 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>16.47982833915155</v>
+        <v>39.27463720033701</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>32.46868749873312</v>
+        <v>6.467656645479678</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>18.62424920938254</v>
       </c>
       <c r="G29" t="n">
-        <v>24.07728446250643</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -4818,127 +4818,127 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>34.01649314993675</v>
+        <v>119.6474507977137</v>
       </c>
       <c r="K29" t="n">
-        <v>60.54787594314781</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>60.09899746608799</v>
+        <v>40.38223899614627</v>
       </c>
       <c r="M29" t="n">
-        <v>33.45043180936783</v>
+        <v>88.69154674253953</v>
       </c>
       <c r="N29" t="n">
-        <v>33.77610344357925</v>
+        <v>39.05436216170767</v>
       </c>
       <c r="O29" t="n">
-        <v>100.9390137877738</v>
+        <v>8.872973001566617</v>
       </c>
       <c r="P29" t="n">
-        <v>11.0445193036829</v>
+        <v>11.97006432195822</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.1843116842936</v>
+        <v>62.60111404116291</v>
       </c>
       <c r="R29" t="n">
-        <v>66.74603459920822</v>
+        <v>32.77241229412046</v>
       </c>
       <c r="S29" t="n">
-        <v>66.80567204566269</v>
+        <v>35.81883073719879</v>
       </c>
       <c r="T29" t="n">
-        <v>41.23325177161922</v>
+        <v>70.43955942099409</v>
       </c>
       <c r="U29" t="n">
-        <v>51.63653601909272</v>
+        <v>42.28114984918891</v>
       </c>
       <c r="V29" t="n">
-        <v>22.68963706528519</v>
+        <v>57.23373398130228</v>
       </c>
       <c r="W29" t="n">
-        <v>67.97233340622164</v>
+        <v>219.9394968859917</v>
       </c>
       <c r="X29" t="n">
-        <v>47.87613444741477</v>
+        <v>65.11714859298088</v>
       </c>
       <c r="Y29" t="n">
-        <v>54.55661568285103</v>
+        <v>108.7790249963094</v>
       </c>
       <c r="Z29" t="n">
-        <v>37.98876948312282</v>
+        <v>58.62607038437767</v>
       </c>
       <c r="AA29" t="n">
-        <v>50.47501742898671</v>
+        <v>11.35303820607101</v>
       </c>
       <c r="AB29" t="n">
-        <v>143.4841835846591</v>
+        <v>34.15928871092258</v>
       </c>
       <c r="AC29" t="n">
-        <v>20.67502817894884</v>
+        <v>25.47671778942862</v>
       </c>
       <c r="AD29" t="n">
-        <v>81.49962693443153</v>
+        <v>54.32476654091209</v>
       </c>
       <c r="AE29" t="n">
-        <v>139.100285718543</v>
+        <v>26.15380642014483</v>
       </c>
       <c r="AF29" t="n">
-        <v>25.803722521719</v>
+        <v>13.82713044992063</v>
       </c>
       <c r="AG29" t="n">
-        <v>38.53596800244254</v>
+        <v>31.4554391433685</v>
       </c>
       <c r="AH29" t="n">
-        <v>8.719672457265791</v>
+        <v>29.03385812074093</v>
       </c>
       <c r="AI29" t="n">
-        <v>43.06169575924812</v>
+        <v>43.34803232598799</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23.64406195905782</v>
+        <v>25.0296453461646</v>
       </c>
       <c r="AK29" t="n">
-        <v>4.504594220696253</v>
+        <v>30.2859609407077</v>
       </c>
       <c r="AL29" t="n">
-        <v>31.04518171162433</v>
+        <v>20.2500149870036</v>
       </c>
       <c r="AM29" t="n">
-        <v>33.91652629810363</v>
+        <v>28.51780464810843</v>
       </c>
       <c r="AN29" t="n">
-        <v>29.30728290710342</v>
+        <v>26.54053306522092</v>
       </c>
       <c r="AO29" t="n">
-        <v>32.38649411771937</v>
+        <v>39.22271968896992</v>
       </c>
       <c r="AP29" t="n">
-        <v>12.01000738362952</v>
+        <v>37.62125328960681</v>
       </c>
       <c r="AQ29" t="n">
-        <v>23.83777910688812</v>
+        <v>29.89611130495969</v>
       </c>
       <c r="AR29" t="n">
-        <v>22.70341397949239</v>
+        <v>30.56542980171998</v>
       </c>
       <c r="AS29" t="n">
-        <v>41.92868071694229</v>
+        <v>0.627873541709343</v>
       </c>
       <c r="AT29" t="n">
-        <v>35.30133525187525</v>
+        <v>25.39865622628601</v>
       </c>
       <c r="AU29" t="n">
-        <v>16.07611964405541</v>
+        <v>26.68492614234248</v>
       </c>
       <c r="AV29" t="n">
-        <v>24.0864921207851</v>
+        <v>12.47620644822136</v>
       </c>
       <c r="AW29" t="n">
-        <v>45.40052659546001</v>
+        <v>36.33013490105893</v>
       </c>
       <c r="AX29" t="n">
-        <v>14.87082568329546</v>
+        <v>28.27106390589671</v>
       </c>
     </row>
     <row r="30">
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.429600676453905</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4961,136 +4961,136 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>13.5948267040489</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.754037062517346</v>
+        <v>17.83513760411859</v>
       </c>
       <c r="I30" t="n">
-        <v>12.88458954626285</v>
+        <v>4.634459890382225</v>
       </c>
       <c r="J30" t="n">
-        <v>5.365806487818679</v>
+        <v>66.16103465190751</v>
       </c>
       <c r="K30" t="n">
-        <v>27.60141336610143</v>
+        <v>8.045117010942199</v>
       </c>
       <c r="L30" t="n">
-        <v>11.06209671286392</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>37.33189294998039</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>56.17722628909001</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>16.96484017544138</v>
+        <v>8.343248262191601</v>
       </c>
       <c r="P30" t="n">
-        <v>23.81588136987005</v>
+        <v>30.93636636509792</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.88672014892602</v>
+        <v>5.595478338974202</v>
       </c>
       <c r="R30" t="n">
-        <v>22.81549110662689</v>
+        <v>17.08651602179187</v>
       </c>
       <c r="S30" t="n">
-        <v>12.55114417362444</v>
+        <v>11.73513079561484</v>
       </c>
       <c r="T30" t="n">
-        <v>19.65082737900489</v>
+        <v>36.58731379845583</v>
       </c>
       <c r="U30" t="n">
-        <v>13.08298256788102</v>
+        <v>42.67983050274854</v>
       </c>
       <c r="V30" t="n">
-        <v>20.02959259804567</v>
+        <v>19.71176402645733</v>
       </c>
       <c r="W30" t="n">
-        <v>26.17445322018842</v>
+        <v>12.33175210270428</v>
       </c>
       <c r="X30" t="n">
-        <v>19.09759005715347</v>
+        <v>11.44338871213381</v>
       </c>
       <c r="Y30" t="n">
-        <v>24.19878471488149</v>
+        <v>13.26276736751795</v>
       </c>
       <c r="Z30" t="n">
-        <v>60.21669471414259</v>
+        <v>47.88748707228138</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.53712244574997</v>
+        <v>12.41321913383545</v>
       </c>
       <c r="AB30" t="n">
-        <v>24.47266820906053</v>
+        <v>13.2297200278992</v>
       </c>
       <c r="AC30" t="n">
-        <v>21.56933565478831</v>
+        <v>9.509084658472728</v>
       </c>
       <c r="AD30" t="n">
-        <v>26.2319570635352</v>
+        <v>17.6804468270274</v>
       </c>
       <c r="AE30" t="n">
-        <v>15.77601534709396</v>
+        <v>32.1952679783024</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.24176554283957</v>
+        <v>8.193856455395093</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.828090127287731</v>
+        <v>9.177776213217793</v>
       </c>
       <c r="AH30" t="n">
-        <v>12.12569964760711</v>
+        <v>13.48811771462142</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.392656253540898</v>
+        <v>8.631064799367554</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.05809459469367</v>
+        <v>3.598485646089947</v>
       </c>
       <c r="AK30" t="n">
-        <v>19.80096035375886</v>
+        <v>9.226948501346854</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.121363951827659</v>
+        <v>16.41613341536549</v>
       </c>
       <c r="AM30" t="n">
-        <v>6.830301899990522</v>
+        <v>5.8037291301536</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.840795597798614</v>
+        <v>2.00861927375827</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.54488445128747</v>
+        <v>3.372340550359646</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.711865323548669</v>
+        <v>0.7077176520709704</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.209615618530092</v>
+        <v>1.793271923425073</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.634849364781134</v>
+        <v>1.351827522373749</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.817273234800044</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.552231033508382</v>
+        <v>3.860112696917279</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.197774802081886</v>
+        <v>4.956218910800738</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.226639123620461</v>
+        <v>2.438593712770491</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.882121502235079</v>
+        <v>6.599172292746848</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.745152465306435</v>
+        <v>5.796867509538442</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>5.10004036722192</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>9.255698798707625</v>
+        <v>37.69278157465868</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.77064228006029</v>
       </c>
       <c r="F31" t="n">
-        <v>5.484503747496158</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>27.39265987832997</v>
+        <v>11.73399296375204</v>
       </c>
       <c r="I31" t="n">
-        <v>23.77544168357851</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.69893097343633</v>
+        <v>11.60000278093858</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>81.16057208736554</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>40.57323779007607</v>
+        <v>11.00158424941405</v>
       </c>
       <c r="N31" t="n">
-        <v>30.94819737380508</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>34.43035822034744</v>
+        <v>24.37952368091378</v>
       </c>
       <c r="P31" t="n">
-        <v>22.75333925085941</v>
+        <v>2.650259483120498</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.64046019885036</v>
+        <v>36.59706788649314</v>
       </c>
       <c r="R31" t="n">
-        <v>125.3566472753266</v>
+        <v>9.085427009688253</v>
       </c>
       <c r="S31" t="n">
-        <v>45.20400026210343</v>
+        <v>39.24856100870332</v>
       </c>
       <c r="T31" t="n">
-        <v>57.6483270562224</v>
+        <v>10.46076849928491</v>
       </c>
       <c r="U31" t="n">
-        <v>38.85745257322692</v>
+        <v>42.04638977605085</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97639958112032</v>
+        <v>34.41286857553494</v>
       </c>
       <c r="W31" t="n">
-        <v>8.008830435898101</v>
+        <v>2.968312445332206</v>
       </c>
       <c r="X31" t="n">
-        <v>19.70356016599077</v>
+        <v>25.31505745092334</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.77187097341686</v>
+        <v>28.79791640897267</v>
       </c>
       <c r="Z31" t="n">
-        <v>56.93852187037218</v>
+        <v>16.20626496255552</v>
       </c>
       <c r="AA31" t="n">
-        <v>31.53931628442434</v>
+        <v>10.65970850837129</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.523870103062829</v>
+        <v>16.077681720477</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.6002856388704</v>
+        <v>17.70855450925512</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.113754240698528</v>
+        <v>1.394519611418894</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>9.374054991685243</v>
       </c>
       <c r="AF31" t="n">
-        <v>14.15505323879466</v>
+        <v>5.454582493674831</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.01593843602645</v>
+        <v>5.36592527076966</v>
       </c>
       <c r="AH31" t="n">
-        <v>46.79113453952129</v>
+        <v>14.49157154442282</v>
       </c>
       <c r="AI31" t="n">
-        <v>15.79406845530794</v>
+        <v>2.255271342424385</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19.17545581363807</v>
+        <v>5.258523545161017</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>3.324483766860702</v>
       </c>
       <c r="AL31" t="n">
-        <v>2.628912239365397</v>
+        <v>17.45472065001649</v>
       </c>
       <c r="AM31" t="n">
-        <v>12.20306424879534</v>
+        <v>9.714335145991525</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>9.312339922670271</v>
       </c>
       <c r="AO31" t="n">
-        <v>2.376520293659592</v>
+        <v>12.57739386838075</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.496331683569668</v>
+        <v>26.32084780018603</v>
       </c>
       <c r="AQ31" t="n">
-        <v>15.00916265126035</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>7.879959424398317</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.581829900007429</v>
+        <v>7.291685205662132</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.1694111349015445</v>
+        <v>2.301202680344118</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.9800449968153986</v>
+        <v>10.38268455093742</v>
       </c>
       <c r="AV31" t="n">
-        <v>6.722276660692502</v>
+        <v>2.480385833178717</v>
       </c>
       <c r="AW31" t="n">
-        <v>12.01374665142235</v>
+        <v>9.902358946989736</v>
       </c>
       <c r="AX31" t="n">
-        <v>2.635879852029453</v>
+        <v>4.568829677159838</v>
       </c>
     </row>
   </sheetData>
